--- a/WakilRecouvrement/WakilRecouvrement.Web/Uploads/LOT_6_POSTE3.xlsx
+++ b/WakilRecouvrement/WakilRecouvrement.Web/Uploads/LOT_6_POSTE3.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4506"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marwen\Desktop\Les lots\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DC175402-98A9-4139-A2AD-57FCE77D8D9E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="13140"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -4732,11 +4738,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.000"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -4920,10 +4926,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Insatisfaisant" xfId="2" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Neutre" xfId="3" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="2" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="1" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="3" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
-    <cellStyle name="Satisfaisant" xfId="1" builtinId="26" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -4981,7 +4987,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -5033,7 +5039,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -5227,21 +5233,19 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M603"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C137" workbookViewId="0">
-      <selection activeCell="C101" sqref="C101"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="17" customWidth="1"/>
     <col min="2" max="2" width="46.85546875" style="17" bestFit="1" customWidth="1"/>
@@ -5257,7 +5261,7 @@
     <col min="14" max="16384" width="9.140625" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" customFormat="1">
+    <row r="1" spans="1:13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5292,7 +5296,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="3" customFormat="1" ht="23.25">
+    <row r="2" spans="1:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B2" s="3" t="s">
         <v>11</v>
       </c>
@@ -5325,7 +5329,7 @@
       </c>
       <c r="M2" s="4"/>
     </row>
-    <row r="3" spans="1:13" s="3" customFormat="1" ht="23.25">
+    <row r="3" spans="1:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B3" s="3" t="s">
         <v>15</v>
       </c>
@@ -5358,7 +5362,7 @@
       </c>
       <c r="M3" s="4"/>
     </row>
-    <row r="4" spans="1:13" s="3" customFormat="1" ht="23.25">
+    <row r="4" spans="1:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B4" s="3" t="s">
         <v>18</v>
       </c>
@@ -5391,7 +5395,7 @@
       </c>
       <c r="M4" s="4"/>
     </row>
-    <row r="5" spans="1:13" s="3" customFormat="1" ht="23.25">
+    <row r="5" spans="1:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B5" s="3" t="s">
         <v>23</v>
       </c>
@@ -5427,7 +5431,7 @@
       </c>
       <c r="M5" s="4"/>
     </row>
-    <row r="6" spans="1:13" s="3" customFormat="1" ht="23.25">
+    <row r="6" spans="1:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B6" s="3" t="s">
         <v>27</v>
       </c>
@@ -5463,7 +5467,7 @@
       </c>
       <c r="M6" s="4"/>
     </row>
-    <row r="7" spans="1:13" s="3" customFormat="1" ht="23.25">
+    <row r="7" spans="1:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B7" s="3" t="s">
         <v>11</v>
       </c>
@@ -5496,7 +5500,7 @@
       </c>
       <c r="M7" s="4"/>
     </row>
-    <row r="8" spans="1:13" s="3" customFormat="1" ht="23.25">
+    <row r="8" spans="1:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B8" s="3" t="s">
         <v>34</v>
       </c>
@@ -5532,7 +5536,7 @@
       </c>
       <c r="M8" s="4"/>
     </row>
-    <row r="9" spans="1:13" s="3" customFormat="1" ht="23.25">
+    <row r="9" spans="1:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B9" s="3" t="s">
         <v>38</v>
       </c>
@@ -5568,7 +5572,7 @@
       </c>
       <c r="M9" s="4"/>
     </row>
-    <row r="10" spans="1:13" s="3" customFormat="1" ht="23.25">
+    <row r="10" spans="1:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B10" s="3" t="s">
         <v>42</v>
       </c>
@@ -5601,7 +5605,7 @@
       </c>
       <c r="M10" s="4"/>
     </row>
-    <row r="11" spans="1:13" s="3" customFormat="1" ht="23.25">
+    <row r="11" spans="1:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B11" s="3" t="s">
         <v>45</v>
       </c>
@@ -5631,7 +5635,7 @@
       </c>
       <c r="M11" s="4"/>
     </row>
-    <row r="12" spans="1:13" s="3" customFormat="1" ht="23.25">
+    <row r="12" spans="1:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B12" s="3" t="s">
         <v>49</v>
       </c>
@@ -5667,7 +5671,7 @@
       </c>
       <c r="M12" s="4"/>
     </row>
-    <row r="13" spans="1:13" s="3" customFormat="1" ht="23.25">
+    <row r="13" spans="1:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B13" s="3" t="s">
         <v>53</v>
       </c>
@@ -5703,7 +5707,7 @@
       </c>
       <c r="M13" s="4"/>
     </row>
-    <row r="14" spans="1:13" s="3" customFormat="1" ht="23.25">
+    <row r="14" spans="1:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B14" s="3" t="s">
         <v>38</v>
       </c>
@@ -5739,7 +5743,7 @@
       </c>
       <c r="M14" s="4"/>
     </row>
-    <row r="15" spans="1:13" s="3" customFormat="1" ht="23.25">
+    <row r="15" spans="1:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B15" s="3" t="s">
         <v>60</v>
       </c>
@@ -5775,7 +5779,7 @@
       </c>
       <c r="M15" s="4"/>
     </row>
-    <row r="16" spans="1:13" s="3" customFormat="1" ht="23.25">
+    <row r="16" spans="1:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B16" s="3" t="s">
         <v>18</v>
       </c>
@@ -5808,7 +5812,7 @@
       </c>
       <c r="M16" s="4"/>
     </row>
-    <row r="17" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="17" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B17" s="3" t="s">
         <v>66</v>
       </c>
@@ -5841,7 +5845,7 @@
       </c>
       <c r="M17" s="4"/>
     </row>
-    <row r="18" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="18" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B18" s="3" t="s">
         <v>66</v>
       </c>
@@ -5874,7 +5878,7 @@
       </c>
       <c r="M18" s="4"/>
     </row>
-    <row r="19" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="19" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B19" s="3" t="s">
         <v>71</v>
       </c>
@@ -5907,7 +5911,7 @@
       </c>
       <c r="M19" s="4"/>
     </row>
-    <row r="20" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="20" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B20" s="3" t="s">
         <v>74</v>
       </c>
@@ -5943,7 +5947,7 @@
       </c>
       <c r="M20" s="4"/>
     </row>
-    <row r="21" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="21" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B21" s="3" t="s">
         <v>77</v>
       </c>
@@ -5976,7 +5980,7 @@
       </c>
       <c r="M21" s="4"/>
     </row>
-    <row r="22" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="22" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B22" s="3" t="s">
         <v>80</v>
       </c>
@@ -6009,7 +6013,7 @@
       </c>
       <c r="M22" s="4"/>
     </row>
-    <row r="23" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="23" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B23" s="3" t="s">
         <v>83</v>
       </c>
@@ -6042,7 +6046,7 @@
       </c>
       <c r="M23" s="4"/>
     </row>
-    <row r="24" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="24" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B24" s="3" t="s">
         <v>86</v>
       </c>
@@ -6078,7 +6082,7 @@
       </c>
       <c r="M24" s="4"/>
     </row>
-    <row r="25" spans="2:13" s="5" customFormat="1" ht="23.25">
+    <row r="25" spans="2:13" s="5" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B25" s="5" t="s">
         <v>91</v>
       </c>
@@ -6114,7 +6118,7 @@
       </c>
       <c r="M25" s="6"/>
     </row>
-    <row r="26" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="26" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B26" s="3" t="s">
         <v>23</v>
       </c>
@@ -6147,7 +6151,7 @@
       </c>
       <c r="M26" s="4"/>
     </row>
-    <row r="27" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="27" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B27" s="3" t="s">
         <v>96</v>
       </c>
@@ -6183,7 +6187,7 @@
       </c>
       <c r="M27" s="4"/>
     </row>
-    <row r="28" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="28" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B28" s="3" t="s">
         <v>99</v>
       </c>
@@ -6216,7 +6220,7 @@
       </c>
       <c r="M28" s="4"/>
     </row>
-    <row r="29" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="29" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B29" s="3" t="s">
         <v>102</v>
       </c>
@@ -6249,7 +6253,7 @@
       </c>
       <c r="M29" s="4"/>
     </row>
-    <row r="30" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="30" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B30" s="3" t="s">
         <v>105</v>
       </c>
@@ -6282,7 +6286,7 @@
       </c>
       <c r="M30" s="4"/>
     </row>
-    <row r="31" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="31" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B31" s="3" t="s">
         <v>108</v>
       </c>
@@ -6318,7 +6322,7 @@
       </c>
       <c r="M31" s="4"/>
     </row>
-    <row r="32" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="32" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B32" s="3" t="s">
         <v>102</v>
       </c>
@@ -6354,7 +6358,7 @@
       </c>
       <c r="M32" s="4"/>
     </row>
-    <row r="33" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="33" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B33" s="3" t="s">
         <v>115</v>
       </c>
@@ -6390,7 +6394,7 @@
       </c>
       <c r="M33" s="4"/>
     </row>
-    <row r="34" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="34" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B34" s="3" t="s">
         <v>96</v>
       </c>
@@ -6423,7 +6427,7 @@
       </c>
       <c r="M34" s="4"/>
     </row>
-    <row r="35" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="35" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B35" s="3" t="s">
         <v>120</v>
       </c>
@@ -6456,7 +6460,7 @@
       </c>
       <c r="M35" s="4"/>
     </row>
-    <row r="36" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="36" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B36" s="3" t="s">
         <v>123</v>
       </c>
@@ -6489,7 +6493,7 @@
       </c>
       <c r="M36" s="4"/>
     </row>
-    <row r="37" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="37" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B37" s="3" t="s">
         <v>91</v>
       </c>
@@ -6522,7 +6526,7 @@
       </c>
       <c r="M37" s="4"/>
     </row>
-    <row r="38" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="38" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B38" s="3" t="s">
         <v>129</v>
       </c>
@@ -6558,7 +6562,7 @@
       </c>
       <c r="M38" s="4"/>
     </row>
-    <row r="39" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="39" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B39" s="3" t="s">
         <v>123</v>
       </c>
@@ -6594,7 +6598,7 @@
       </c>
       <c r="M39" s="4"/>
     </row>
-    <row r="40" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="40" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B40" s="3" t="s">
         <v>136</v>
       </c>
@@ -6630,7 +6634,7 @@
       </c>
       <c r="M40" s="4"/>
     </row>
-    <row r="41" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="41" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B41" s="3" t="s">
         <v>96</v>
       </c>
@@ -6663,7 +6667,7 @@
       </c>
       <c r="M41" s="4"/>
     </row>
-    <row r="42" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="42" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B42" s="3" t="s">
         <v>141</v>
       </c>
@@ -6699,7 +6703,7 @@
       </c>
       <c r="M42" s="4"/>
     </row>
-    <row r="43" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="43" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B43" s="3" t="s">
         <v>144</v>
       </c>
@@ -6735,7 +6739,7 @@
       </c>
       <c r="M43" s="4"/>
     </row>
-    <row r="44" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="44" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B44" s="3" t="s">
         <v>99</v>
       </c>
@@ -6768,7 +6772,7 @@
       </c>
       <c r="M44" s="4"/>
     </row>
-    <row r="45" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="45" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B45" s="3" t="s">
         <v>42</v>
       </c>
@@ -6801,7 +6805,7 @@
       </c>
       <c r="M45" s="4"/>
     </row>
-    <row r="46" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="46" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B46" s="3" t="s">
         <v>152</v>
       </c>
@@ -6837,7 +6841,7 @@
       </c>
       <c r="M46" s="4"/>
     </row>
-    <row r="47" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="47" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B47" s="3" t="s">
         <v>11</v>
       </c>
@@ -6870,7 +6874,7 @@
       </c>
       <c r="M47" s="4"/>
     </row>
-    <row r="48" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="48" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B48" s="3" t="s">
         <v>158</v>
       </c>
@@ -6903,7 +6907,7 @@
       </c>
       <c r="M48" s="4"/>
     </row>
-    <row r="49" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="49" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B49" s="3" t="s">
         <v>162</v>
       </c>
@@ -6939,7 +6943,7 @@
       </c>
       <c r="M49" s="4"/>
     </row>
-    <row r="50" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="50" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B50" s="3" t="s">
         <v>166</v>
       </c>
@@ -6972,7 +6976,7 @@
       </c>
       <c r="M50" s="4"/>
     </row>
-    <row r="51" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="51" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B51" s="3" t="s">
         <v>169</v>
       </c>
@@ -7005,7 +7009,7 @@
       </c>
       <c r="M51" s="4"/>
     </row>
-    <row r="52" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="52" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B52" s="3" t="s">
         <v>173</v>
       </c>
@@ -7038,7 +7042,7 @@
       </c>
       <c r="M52" s="4"/>
     </row>
-    <row r="53" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="53" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B53" s="3" t="s">
         <v>177</v>
       </c>
@@ -7071,7 +7075,7 @@
       </c>
       <c r="M53" s="4"/>
     </row>
-    <row r="54" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="54" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B54" s="3" t="s">
         <v>180</v>
       </c>
@@ -7104,7 +7108,7 @@
       </c>
       <c r="M54" s="4"/>
     </row>
-    <row r="55" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="55" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B55" s="3" t="s">
         <v>83</v>
       </c>
@@ -7137,7 +7141,7 @@
       </c>
       <c r="M55" s="4"/>
     </row>
-    <row r="56" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="56" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B56" s="3" t="s">
         <v>177</v>
       </c>
@@ -7173,7 +7177,7 @@
       </c>
       <c r="M56" s="4"/>
     </row>
-    <row r="57" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="57" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B57" s="3" t="s">
         <v>188</v>
       </c>
@@ -7209,7 +7213,7 @@
       </c>
       <c r="M57" s="4"/>
     </row>
-    <row r="58" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="58" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B58" s="3" t="s">
         <v>144</v>
       </c>
@@ -7245,7 +7249,7 @@
       </c>
       <c r="M58" s="4"/>
     </row>
-    <row r="59" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="59" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B59" s="3" t="s">
         <v>196</v>
       </c>
@@ -7278,7 +7282,7 @@
       </c>
       <c r="M59" s="4"/>
     </row>
-    <row r="60" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="60" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B60" s="3" t="s">
         <v>199</v>
       </c>
@@ -7311,7 +7315,7 @@
       </c>
       <c r="M60" s="4"/>
     </row>
-    <row r="61" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="61" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B61" s="3" t="s">
         <v>180</v>
       </c>
@@ -7344,7 +7348,7 @@
       </c>
       <c r="M61" s="4"/>
     </row>
-    <row r="62" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="62" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B62" s="3" t="s">
         <v>42</v>
       </c>
@@ -7380,7 +7384,7 @@
       </c>
       <c r="M62" s="4"/>
     </row>
-    <row r="63" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="63" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B63" s="3" t="s">
         <v>177</v>
       </c>
@@ -7413,7 +7417,7 @@
       </c>
       <c r="M63" s="4"/>
     </row>
-    <row r="64" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="64" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B64" s="3" t="s">
         <v>209</v>
       </c>
@@ -7446,7 +7450,7 @@
       </c>
       <c r="M64" s="4"/>
     </row>
-    <row r="65" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="65" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B65" s="3" t="s">
         <v>15</v>
       </c>
@@ -7482,7 +7486,7 @@
       </c>
       <c r="M65" s="4"/>
     </row>
-    <row r="66" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="66" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B66" s="3" t="s">
         <v>96</v>
       </c>
@@ -7515,7 +7519,7 @@
       </c>
       <c r="M66" s="4"/>
     </row>
-    <row r="67" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="67" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B67" s="3" t="s">
         <v>218</v>
       </c>
@@ -7551,7 +7555,7 @@
       </c>
       <c r="M67" s="4"/>
     </row>
-    <row r="68" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="68" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B68" s="3" t="s">
         <v>169</v>
       </c>
@@ -7584,7 +7588,7 @@
       </c>
       <c r="M68" s="4"/>
     </row>
-    <row r="69" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="69" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B69" s="3" t="s">
         <v>223</v>
       </c>
@@ -7617,7 +7621,7 @@
       </c>
       <c r="M69" s="4"/>
     </row>
-    <row r="70" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="70" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B70" s="3" t="s">
         <v>226</v>
       </c>
@@ -7650,7 +7654,7 @@
       </c>
       <c r="M70" s="4"/>
     </row>
-    <row r="71" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="71" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B71" s="3" t="s">
         <v>229</v>
       </c>
@@ -7683,7 +7687,7 @@
       </c>
       <c r="M71" s="4"/>
     </row>
-    <row r="72" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="72" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B72" s="3" t="s">
         <v>123</v>
       </c>
@@ -7716,7 +7720,7 @@
       </c>
       <c r="M72" s="4"/>
     </row>
-    <row r="73" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="73" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B73" s="3" t="s">
         <v>235</v>
       </c>
@@ -7749,7 +7753,7 @@
       </c>
       <c r="M73" s="4"/>
     </row>
-    <row r="74" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="74" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B74" s="3" t="s">
         <v>34</v>
       </c>
@@ -7782,7 +7786,7 @@
       </c>
       <c r="M74" s="4"/>
     </row>
-    <row r="75" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="75" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B75" s="3" t="s">
         <v>240</v>
       </c>
@@ -7818,7 +7822,7 @@
       </c>
       <c r="M75" s="4"/>
     </row>
-    <row r="76" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="76" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B76" s="3" t="s">
         <v>42</v>
       </c>
@@ -7854,7 +7858,7 @@
       </c>
       <c r="M76" s="4"/>
     </row>
-    <row r="77" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="77" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B77" s="3" t="s">
         <v>11</v>
       </c>
@@ -7890,7 +7894,7 @@
       </c>
       <c r="M77" s="4"/>
     </row>
-    <row r="78" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="78" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B78" s="3" t="s">
         <v>71</v>
       </c>
@@ -7923,7 +7927,7 @@
       </c>
       <c r="M78" s="4"/>
     </row>
-    <row r="79" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="79" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B79" s="3" t="s">
         <v>180</v>
       </c>
@@ -7956,7 +7960,7 @@
       </c>
       <c r="M79" s="4"/>
     </row>
-    <row r="80" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="80" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B80" s="3" t="s">
         <v>120</v>
       </c>
@@ -7992,7 +7996,7 @@
       </c>
       <c r="M80" s="4"/>
     </row>
-    <row r="81" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="81" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B81" s="3" t="s">
         <v>256</v>
       </c>
@@ -8025,7 +8029,7 @@
       </c>
       <c r="M81" s="4"/>
     </row>
-    <row r="82" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="82" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B82" s="3" t="s">
         <v>105</v>
       </c>
@@ -8058,7 +8062,7 @@
       </c>
       <c r="M82" s="4"/>
     </row>
-    <row r="83" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="83" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B83" s="3" t="s">
         <v>173</v>
       </c>
@@ -8088,7 +8092,7 @@
       </c>
       <c r="M83" s="4"/>
     </row>
-    <row r="84" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="84" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B84" s="3" t="s">
         <v>71</v>
       </c>
@@ -8121,7 +8125,7 @@
       </c>
       <c r="M84" s="4"/>
     </row>
-    <row r="85" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="85" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B85" s="3" t="s">
         <v>266</v>
       </c>
@@ -8154,7 +8158,7 @@
       </c>
       <c r="M85" s="4"/>
     </row>
-    <row r="86" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="86" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B86" s="3" t="s">
         <v>96</v>
       </c>
@@ -8190,7 +8194,7 @@
       </c>
       <c r="M86" s="4"/>
     </row>
-    <row r="87" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="87" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B87" s="3" t="s">
         <v>272</v>
       </c>
@@ -8223,7 +8227,7 @@
       </c>
       <c r="M87" s="4"/>
     </row>
-    <row r="88" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="88" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B88" s="3" t="s">
         <v>177</v>
       </c>
@@ -8256,7 +8260,7 @@
       </c>
       <c r="M88" s="4"/>
     </row>
-    <row r="89" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="89" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B89" s="3" t="s">
         <v>136</v>
       </c>
@@ -8289,7 +8293,7 @@
       </c>
       <c r="M89" s="4"/>
     </row>
-    <row r="90" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="90" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B90" s="3" t="s">
         <v>34</v>
       </c>
@@ -8325,7 +8329,7 @@
       </c>
       <c r="M90" s="4"/>
     </row>
-    <row r="91" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="91" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B91" s="3" t="s">
         <v>53</v>
       </c>
@@ -8358,7 +8362,7 @@
       </c>
       <c r="M91" s="4"/>
     </row>
-    <row r="92" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="92" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B92" s="3" t="s">
         <v>105</v>
       </c>
@@ -8391,7 +8395,7 @@
       </c>
       <c r="M92" s="4"/>
     </row>
-    <row r="93" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="93" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B93" s="3" t="s">
         <v>169</v>
       </c>
@@ -8427,7 +8431,7 @@
       </c>
       <c r="M93" s="4"/>
     </row>
-    <row r="94" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="94" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B94" s="3" t="s">
         <v>289</v>
       </c>
@@ -8460,7 +8464,7 @@
       </c>
       <c r="M94" s="4"/>
     </row>
-    <row r="95" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="95" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B95" s="3" t="s">
         <v>293</v>
       </c>
@@ -8493,7 +8497,7 @@
       </c>
       <c r="M95" s="4"/>
     </row>
-    <row r="96" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="96" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B96" s="3" t="s">
         <v>296</v>
       </c>
@@ -8526,7 +8530,7 @@
       </c>
       <c r="M96" s="4"/>
     </row>
-    <row r="97" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="97" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B97" s="3" t="s">
         <v>77</v>
       </c>
@@ -8562,7 +8566,7 @@
       </c>
       <c r="M97" s="4"/>
     </row>
-    <row r="98" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="98" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B98" s="3" t="s">
         <v>71</v>
       </c>
@@ -8598,7 +8602,7 @@
       </c>
       <c r="M98" s="4"/>
     </row>
-    <row r="99" spans="2:13" s="5" customFormat="1" ht="23.25">
+    <row r="99" spans="2:13" s="5" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B99" s="5" t="s">
         <v>96</v>
       </c>
@@ -8634,7 +8638,7 @@
       </c>
       <c r="M99" s="6"/>
     </row>
-    <row r="100" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="100" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B100" s="3" t="s">
         <v>226</v>
       </c>
@@ -8667,7 +8671,7 @@
       </c>
       <c r="M100" s="4"/>
     </row>
-    <row r="101" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="101" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B101" s="3" t="s">
         <v>308</v>
       </c>
@@ -8700,7 +8704,7 @@
       </c>
       <c r="M101" s="4"/>
     </row>
-    <row r="102" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="102" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B102" s="3" t="s">
         <v>108</v>
       </c>
@@ -8733,7 +8737,7 @@
       </c>
       <c r="M102" s="4"/>
     </row>
-    <row r="103" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="103" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B103" s="3" t="s">
         <v>144</v>
       </c>
@@ -8766,7 +8770,7 @@
       </c>
       <c r="M103" s="4"/>
     </row>
-    <row r="104" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="104" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B104" s="3" t="s">
         <v>289</v>
       </c>
@@ -8802,7 +8806,7 @@
       </c>
       <c r="M104" s="4"/>
     </row>
-    <row r="105" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="105" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B105" s="3" t="s">
         <v>34</v>
       </c>
@@ -8835,7 +8839,7 @@
       </c>
       <c r="M105" s="4"/>
     </row>
-    <row r="106" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="106" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B106" s="3" t="s">
         <v>319</v>
       </c>
@@ -8868,7 +8872,7 @@
       </c>
       <c r="M106" s="4"/>
     </row>
-    <row r="107" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="107" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B107" s="3" t="s">
         <v>74</v>
       </c>
@@ -8901,7 +8905,7 @@
       </c>
       <c r="M107" s="4"/>
     </row>
-    <row r="108" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="108" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B108" s="3" t="s">
         <v>325</v>
       </c>
@@ -8934,7 +8938,7 @@
       </c>
       <c r="M108" s="4"/>
     </row>
-    <row r="109" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="109" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B109" s="3" t="s">
         <v>308</v>
       </c>
@@ -8967,7 +8971,7 @@
       </c>
       <c r="M109" s="4"/>
     </row>
-    <row r="110" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="110" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B110" s="3" t="s">
         <v>330</v>
       </c>
@@ -9000,7 +9004,7 @@
       </c>
       <c r="M110" s="4"/>
     </row>
-    <row r="111" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="111" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B111" s="3" t="s">
         <v>108</v>
       </c>
@@ -9033,7 +9037,7 @@
       </c>
       <c r="M111" s="4"/>
     </row>
-    <row r="112" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="112" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B112" s="3" t="s">
         <v>335</v>
       </c>
@@ -9066,7 +9070,7 @@
       </c>
       <c r="M112" s="4"/>
     </row>
-    <row r="113" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="113" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B113" s="3" t="s">
         <v>66</v>
       </c>
@@ -9099,7 +9103,7 @@
       </c>
       <c r="M113" s="4"/>
     </row>
-    <row r="114" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="114" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B114" s="3" t="s">
         <v>308</v>
       </c>
@@ -9132,7 +9136,7 @@
       </c>
       <c r="M114" s="4"/>
     </row>
-    <row r="115" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="115" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B115" s="3" t="s">
         <v>99</v>
       </c>
@@ -9168,7 +9172,7 @@
       </c>
       <c r="M115" s="4"/>
     </row>
-    <row r="116" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="116" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B116" s="3" t="s">
         <v>344</v>
       </c>
@@ -9204,7 +9208,7 @@
       </c>
       <c r="M116" s="4"/>
     </row>
-    <row r="117" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="117" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B117" s="3" t="s">
         <v>209</v>
       </c>
@@ -9237,7 +9241,7 @@
       </c>
       <c r="M117" s="4"/>
     </row>
-    <row r="118" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="118" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B118" s="3" t="s">
         <v>105</v>
       </c>
@@ -9273,7 +9277,7 @@
       </c>
       <c r="M118" s="4"/>
     </row>
-    <row r="119" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="119" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B119" s="3" t="s">
         <v>18</v>
       </c>
@@ -9309,7 +9313,7 @@
       </c>
       <c r="M119" s="4"/>
     </row>
-    <row r="120" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="120" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B120" s="3" t="s">
         <v>353</v>
       </c>
@@ -9347,7 +9351,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="121" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="121" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B121" s="3" t="s">
         <v>18</v>
       </c>
@@ -9383,7 +9387,7 @@
       </c>
       <c r="M121" s="4"/>
     </row>
-    <row r="122" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="122" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B122" s="3" t="s">
         <v>358</v>
       </c>
@@ -9419,7 +9423,7 @@
       </c>
       <c r="M122" s="4"/>
     </row>
-    <row r="123" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="123" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B123" s="3" t="s">
         <v>91</v>
       </c>
@@ -9455,7 +9459,7 @@
       </c>
       <c r="M123" s="4"/>
     </row>
-    <row r="124" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="124" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B124" s="3" t="s">
         <v>289</v>
       </c>
@@ -9491,7 +9495,7 @@
       </c>
       <c r="M124" s="4"/>
     </row>
-    <row r="125" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="125" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B125" s="3" t="s">
         <v>53</v>
       </c>
@@ -9527,7 +9531,7 @@
       </c>
       <c r="M125" s="4"/>
     </row>
-    <row r="126" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="126" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B126" s="3" t="s">
         <v>18</v>
       </c>
@@ -9560,7 +9564,7 @@
       </c>
       <c r="M126" s="4"/>
     </row>
-    <row r="127" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="127" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B127" s="3" t="s">
         <v>11</v>
       </c>
@@ -9593,7 +9597,7 @@
       </c>
       <c r="M127" s="4"/>
     </row>
-    <row r="128" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="128" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B128" s="3" t="s">
         <v>319</v>
       </c>
@@ -9626,7 +9630,7 @@
       </c>
       <c r="M128" s="4"/>
     </row>
-    <row r="129" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="129" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B129" s="3" t="s">
         <v>99</v>
       </c>
@@ -9662,7 +9666,7 @@
       </c>
       <c r="M129" s="4"/>
     </row>
-    <row r="130" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="130" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B130" s="3" t="s">
         <v>272</v>
       </c>
@@ -9695,7 +9699,7 @@
       </c>
       <c r="M130" s="4"/>
     </row>
-    <row r="131" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="131" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B131" s="3" t="s">
         <v>229</v>
       </c>
@@ -9731,7 +9735,7 @@
       </c>
       <c r="M131" s="4"/>
     </row>
-    <row r="132" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="132" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B132" s="3" t="s">
         <v>383</v>
       </c>
@@ -9764,7 +9768,7 @@
       </c>
       <c r="M132" s="4"/>
     </row>
-    <row r="133" spans="2:13" s="5" customFormat="1" ht="23.25">
+    <row r="133" spans="2:13" s="5" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B133" s="5" t="s">
         <v>120</v>
       </c>
@@ -9800,7 +9804,7 @@
       </c>
       <c r="M133" s="6"/>
     </row>
-    <row r="134" spans="2:13" s="5" customFormat="1" ht="23.25">
+    <row r="134" spans="2:13" s="5" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B134" s="5" t="s">
         <v>272</v>
       </c>
@@ -9833,7 +9837,7 @@
       </c>
       <c r="M134" s="6"/>
     </row>
-    <row r="135" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="135" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B135" s="3" t="s">
         <v>108</v>
       </c>
@@ -9866,7 +9870,7 @@
       </c>
       <c r="M135" s="4"/>
     </row>
-    <row r="136" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="136" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B136" s="3" t="s">
         <v>158</v>
       </c>
@@ -9902,7 +9906,7 @@
       </c>
       <c r="M136" s="4"/>
     </row>
-    <row r="137" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="137" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B137" s="3" t="s">
         <v>49</v>
       </c>
@@ -9935,7 +9939,7 @@
       </c>
       <c r="M137" s="4"/>
     </row>
-    <row r="138" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="138" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B138" s="3" t="s">
         <v>158</v>
       </c>
@@ -9968,7 +9972,7 @@
       </c>
       <c r="M138" s="4"/>
     </row>
-    <row r="139" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="139" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B139" s="3" t="s">
         <v>23</v>
       </c>
@@ -10001,7 +10005,7 @@
       </c>
       <c r="M139" s="4"/>
     </row>
-    <row r="140" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="140" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B140" s="3" t="s">
         <v>158</v>
       </c>
@@ -10034,7 +10038,7 @@
       </c>
       <c r="M140" s="4"/>
     </row>
-    <row r="141" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="141" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B141" s="3" t="s">
         <v>180</v>
       </c>
@@ -10070,7 +10074,7 @@
       </c>
       <c r="M141" s="4"/>
     </row>
-    <row r="142" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="142" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B142" s="3" t="s">
         <v>34</v>
       </c>
@@ -10103,7 +10107,7 @@
       </c>
       <c r="M142" s="4"/>
     </row>
-    <row r="143" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="143" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B143" s="3" t="s">
         <v>229</v>
       </c>
@@ -10139,7 +10143,7 @@
       </c>
       <c r="M143" s="4"/>
     </row>
-    <row r="144" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="144" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B144" s="3" t="s">
         <v>105</v>
       </c>
@@ -10172,7 +10176,7 @@
       </c>
       <c r="M144" s="4"/>
     </row>
-    <row r="145" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="145" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B145" s="3" t="s">
         <v>80</v>
       </c>
@@ -10208,7 +10212,7 @@
       </c>
       <c r="M145" s="4"/>
     </row>
-    <row r="146" spans="2:13" s="3" customFormat="1" ht="13.5" customHeight="1">
+    <row r="146" spans="2:13" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B146" s="3" t="s">
         <v>235</v>
       </c>
@@ -10244,7 +10248,7 @@
       </c>
       <c r="M146" s="4"/>
     </row>
-    <row r="147" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="147" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B147" s="3" t="s">
         <v>45</v>
       </c>
@@ -10280,7 +10284,7 @@
       </c>
       <c r="M147" s="4"/>
     </row>
-    <row r="148" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="148" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B148" s="3" t="s">
         <v>105</v>
       </c>
@@ -10313,7 +10317,7 @@
       </c>
       <c r="M148" s="4"/>
     </row>
-    <row r="149" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="149" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B149" s="3" t="s">
         <v>188</v>
       </c>
@@ -10349,7 +10353,7 @@
       </c>
       <c r="M149" s="4"/>
     </row>
-    <row r="150" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="150" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B150" s="3" t="s">
         <v>42</v>
       </c>
@@ -10382,7 +10386,7 @@
       </c>
       <c r="M150" s="4"/>
     </row>
-    <row r="151" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="151" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B151" s="3" t="s">
         <v>319</v>
       </c>
@@ -10415,7 +10419,7 @@
       </c>
       <c r="M151" s="4"/>
     </row>
-    <row r="152" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="152" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B152" s="3" t="s">
         <v>429</v>
       </c>
@@ -10448,7 +10452,7 @@
       </c>
       <c r="M152" s="4"/>
     </row>
-    <row r="153" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="153" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B153" s="3" t="s">
         <v>188</v>
       </c>
@@ -10484,7 +10488,7 @@
       </c>
       <c r="M153" s="4"/>
     </row>
-    <row r="154" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="154" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B154" s="3" t="s">
         <v>123</v>
       </c>
@@ -10517,7 +10521,7 @@
       </c>
       <c r="M154" s="4"/>
     </row>
-    <row r="155" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="155" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B155" s="3" t="s">
         <v>96</v>
       </c>
@@ -10550,7 +10554,7 @@
       </c>
       <c r="M155" s="4"/>
     </row>
-    <row r="156" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="156" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B156" s="3" t="s">
         <v>86</v>
       </c>
@@ -10583,7 +10587,7 @@
       </c>
       <c r="M156" s="4"/>
     </row>
-    <row r="157" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="157" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B157" s="3" t="s">
         <v>440</v>
       </c>
@@ -10616,7 +10620,7 @@
       </c>
       <c r="M157" s="4"/>
     </row>
-    <row r="158" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="158" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B158" s="3" t="s">
         <v>105</v>
       </c>
@@ -10652,7 +10656,7 @@
       </c>
       <c r="M158" s="4"/>
     </row>
-    <row r="159" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="159" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B159" s="3" t="s">
         <v>173</v>
       </c>
@@ -10688,7 +10692,7 @@
       </c>
       <c r="M159" s="4"/>
     </row>
-    <row r="160" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="160" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B160" s="3" t="s">
         <v>74</v>
       </c>
@@ -10721,7 +10725,7 @@
       </c>
       <c r="M160" s="4"/>
     </row>
-    <row r="161" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="161" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B161" s="3" t="s">
         <v>105</v>
       </c>
@@ -10757,7 +10761,7 @@
       </c>
       <c r="M161" s="4"/>
     </row>
-    <row r="162" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="162" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B162" s="3" t="s">
         <v>229</v>
       </c>
@@ -10790,7 +10794,7 @@
       </c>
       <c r="M162" s="4"/>
     </row>
-    <row r="163" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="163" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B163" s="3" t="s">
         <v>42</v>
       </c>
@@ -10823,7 +10827,7 @@
       </c>
       <c r="M163" s="4"/>
     </row>
-    <row r="164" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="164" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B164" s="3" t="s">
         <v>456</v>
       </c>
@@ -10859,7 +10863,7 @@
       </c>
       <c r="M164" s="4"/>
     </row>
-    <row r="165" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="165" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B165" s="3" t="s">
         <v>173</v>
       </c>
@@ -10892,7 +10896,7 @@
       </c>
       <c r="M165" s="4"/>
     </row>
-    <row r="166" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="166" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B166" s="3" t="s">
         <v>173</v>
       </c>
@@ -10928,7 +10932,7 @@
       </c>
       <c r="M166" s="4"/>
     </row>
-    <row r="167" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="167" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B167" s="3" t="s">
         <v>105</v>
       </c>
@@ -10961,7 +10965,7 @@
       </c>
       <c r="M167" s="4"/>
     </row>
-    <row r="168" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="168" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B168" s="3" t="s">
         <v>188</v>
       </c>
@@ -10997,7 +11001,7 @@
       </c>
       <c r="M168" s="4"/>
     </row>
-    <row r="169" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="169" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B169" s="3" t="s">
         <v>440</v>
       </c>
@@ -11030,7 +11034,7 @@
       </c>
       <c r="M169" s="4"/>
     </row>
-    <row r="170" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="170" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B170" s="3" t="s">
         <v>45</v>
       </c>
@@ -11063,7 +11067,7 @@
       </c>
       <c r="M170" s="4"/>
     </row>
-    <row r="171" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="171" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B171" s="3" t="s">
         <v>475</v>
       </c>
@@ -11099,7 +11103,7 @@
       </c>
       <c r="M171" s="4"/>
     </row>
-    <row r="172" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="172" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B172" s="3" t="s">
         <v>108</v>
       </c>
@@ -11135,7 +11139,7 @@
       </c>
       <c r="M172" s="4"/>
     </row>
-    <row r="173" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="173" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B173" s="3" t="s">
         <v>141</v>
       </c>
@@ -11168,7 +11172,7 @@
       </c>
       <c r="M173" s="4"/>
     </row>
-    <row r="174" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="174" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B174" s="3" t="s">
         <v>319</v>
       </c>
@@ -11201,7 +11205,7 @@
       </c>
       <c r="M174" s="4"/>
     </row>
-    <row r="175" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="175" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B175" s="3" t="s">
         <v>266</v>
       </c>
@@ -11237,7 +11241,7 @@
       </c>
       <c r="M175" s="4"/>
     </row>
-    <row r="176" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="176" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B176" s="3" t="s">
         <v>144</v>
       </c>
@@ -11270,7 +11274,7 @@
       </c>
       <c r="M176" s="4"/>
     </row>
-    <row r="177" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="177" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B177" s="3" t="s">
         <v>173</v>
       </c>
@@ -11303,7 +11307,7 @@
       </c>
       <c r="M177" s="4"/>
     </row>
-    <row r="178" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="178" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B178" s="3" t="s">
         <v>493</v>
       </c>
@@ -11339,7 +11343,7 @@
       </c>
       <c r="M178" s="4"/>
     </row>
-    <row r="179" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="179" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B179" s="3" t="s">
         <v>108</v>
       </c>
@@ -11372,7 +11376,7 @@
       </c>
       <c r="M179" s="4"/>
     </row>
-    <row r="180" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="180" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B180" s="3" t="s">
         <v>229</v>
       </c>
@@ -11408,7 +11412,7 @@
       </c>
       <c r="M180" s="4"/>
     </row>
-    <row r="181" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="181" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B181" s="3" t="s">
         <v>86</v>
       </c>
@@ -11441,7 +11445,7 @@
       </c>
       <c r="M181" s="4"/>
     </row>
-    <row r="182" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="182" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B182" s="3" t="s">
         <v>226</v>
       </c>
@@ -11474,7 +11478,7 @@
       </c>
       <c r="M182" s="4"/>
     </row>
-    <row r="183" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="183" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B183" s="3" t="s">
         <v>96</v>
       </c>
@@ -11510,7 +11514,7 @@
       </c>
       <c r="M183" s="4"/>
     </row>
-    <row r="184" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="184" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B184" s="3" t="s">
         <v>86</v>
       </c>
@@ -11546,7 +11550,7 @@
       </c>
       <c r="M184" s="4"/>
     </row>
-    <row r="185" spans="2:13" s="5" customFormat="1" ht="23.25">
+    <row r="185" spans="2:13" s="5" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B185" s="5" t="s">
         <v>229</v>
       </c>
@@ -11579,7 +11583,7 @@
       </c>
       <c r="M185" s="6"/>
     </row>
-    <row r="186" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="186" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B186" s="3" t="s">
         <v>34</v>
       </c>
@@ -11615,7 +11619,7 @@
       </c>
       <c r="M186" s="4"/>
     </row>
-    <row r="187" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="187" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B187" s="3" t="s">
         <v>514</v>
       </c>
@@ -11648,7 +11652,7 @@
       </c>
       <c r="M187" s="4"/>
     </row>
-    <row r="188" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="188" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B188" s="3" t="s">
         <v>42</v>
       </c>
@@ -11681,7 +11685,7 @@
       </c>
       <c r="M188" s="4"/>
     </row>
-    <row r="189" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="189" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B189" s="3" t="s">
         <v>96</v>
       </c>
@@ -11717,7 +11721,7 @@
       </c>
       <c r="M189" s="4"/>
     </row>
-    <row r="190" spans="2:13" s="5" customFormat="1" ht="23.25">
+    <row r="190" spans="2:13" s="5" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B190" s="5" t="s">
         <v>18</v>
       </c>
@@ -11750,7 +11754,7 @@
       </c>
       <c r="M190" s="6"/>
     </row>
-    <row r="191" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="191" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B191" s="3" t="s">
         <v>108</v>
       </c>
@@ -11786,7 +11790,7 @@
       </c>
       <c r="M191" s="4"/>
     </row>
-    <row r="192" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="192" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B192" s="3" t="s">
         <v>440</v>
       </c>
@@ -11819,7 +11823,7 @@
       </c>
       <c r="M192" s="4"/>
     </row>
-    <row r="193" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="193" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B193" s="3" t="s">
         <v>34</v>
       </c>
@@ -11855,7 +11859,7 @@
       </c>
       <c r="M193" s="4"/>
     </row>
-    <row r="194" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="194" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B194" s="3" t="s">
         <v>53</v>
       </c>
@@ -11891,7 +11895,7 @@
       </c>
       <c r="M194" s="4"/>
     </row>
-    <row r="195" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="195" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B195" s="3" t="s">
         <v>209</v>
       </c>
@@ -11924,7 +11928,7 @@
       </c>
       <c r="M195" s="4"/>
     </row>
-    <row r="196" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="196" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B196" s="3" t="s">
         <v>15</v>
       </c>
@@ -11960,7 +11964,7 @@
       </c>
       <c r="M196" s="4"/>
     </row>
-    <row r="197" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="197" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B197" s="3" t="s">
         <v>15</v>
       </c>
@@ -11996,7 +12000,7 @@
       </c>
       <c r="M197" s="4"/>
     </row>
-    <row r="198" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="198" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B198" s="3" t="s">
         <v>162</v>
       </c>
@@ -12029,7 +12033,7 @@
       </c>
       <c r="M198" s="4"/>
     </row>
-    <row r="199" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="199" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B199" s="3" t="s">
         <v>42</v>
       </c>
@@ -12062,7 +12066,7 @@
       </c>
       <c r="M199" s="4"/>
     </row>
-    <row r="200" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="200" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B200" s="3" t="s">
         <v>325</v>
       </c>
@@ -12098,7 +12102,7 @@
       </c>
       <c r="M200" s="4"/>
     </row>
-    <row r="201" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="201" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B201" s="3" t="s">
         <v>77</v>
       </c>
@@ -12134,7 +12138,7 @@
       </c>
       <c r="M201" s="4"/>
     </row>
-    <row r="202" spans="2:13" s="7" customFormat="1" ht="23.25">
+    <row r="202" spans="2:13" s="7" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B202" s="7" t="s">
         <v>173</v>
       </c>
@@ -12167,7 +12171,7 @@
       </c>
       <c r="M202" s="8"/>
     </row>
-    <row r="203" spans="2:13" s="7" customFormat="1" ht="23.25">
+    <row r="203" spans="2:13" s="7" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B203" s="7" t="s">
         <v>196</v>
       </c>
@@ -12200,7 +12204,7 @@
       </c>
       <c r="M203" s="8"/>
     </row>
-    <row r="204" spans="2:13" s="7" customFormat="1" ht="23.25">
+    <row r="204" spans="2:13" s="7" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B204" s="7" t="s">
         <v>144</v>
       </c>
@@ -12233,7 +12237,7 @@
       </c>
       <c r="M204" s="8"/>
     </row>
-    <row r="205" spans="2:13" s="7" customFormat="1" ht="23.25">
+    <row r="205" spans="2:13" s="7" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B205" s="7" t="s">
         <v>141</v>
       </c>
@@ -12269,7 +12273,7 @@
       </c>
       <c r="M205" s="8"/>
     </row>
-    <row r="206" spans="2:13" s="7" customFormat="1" ht="23.25">
+    <row r="206" spans="2:13" s="7" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B206" s="7" t="s">
         <v>180</v>
       </c>
@@ -12302,7 +12306,7 @@
       </c>
       <c r="M206" s="8"/>
     </row>
-    <row r="207" spans="2:13" s="7" customFormat="1" ht="23.25">
+    <row r="207" spans="2:13" s="7" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B207" s="7" t="s">
         <v>105</v>
       </c>
@@ -12335,7 +12339,7 @@
       </c>
       <c r="M207" s="8"/>
     </row>
-    <row r="208" spans="2:13" s="7" customFormat="1" ht="23.25">
+    <row r="208" spans="2:13" s="7" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B208" s="7" t="s">
         <v>308</v>
       </c>
@@ -12368,7 +12372,7 @@
       </c>
       <c r="M208" s="8"/>
     </row>
-    <row r="209" spans="2:13" s="7" customFormat="1" ht="23.25">
+    <row r="209" spans="2:13" s="7" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B209" s="7" t="s">
         <v>567</v>
       </c>
@@ -12401,7 +12405,7 @@
       </c>
       <c r="M209" s="8"/>
     </row>
-    <row r="210" spans="2:13" s="7" customFormat="1" ht="23.25">
+    <row r="210" spans="2:13" s="7" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B210" s="7" t="s">
         <v>49</v>
       </c>
@@ -12434,7 +12438,7 @@
       </c>
       <c r="M210" s="8"/>
     </row>
-    <row r="211" spans="2:13" s="7" customFormat="1" ht="23.25">
+    <row r="211" spans="2:13" s="7" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B211" s="7" t="s">
         <v>493</v>
       </c>
@@ -12470,7 +12474,7 @@
       </c>
       <c r="M211" s="8"/>
     </row>
-    <row r="212" spans="2:13" s="7" customFormat="1" ht="23.25">
+    <row r="212" spans="2:13" s="7" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B212" s="7" t="s">
         <v>199</v>
       </c>
@@ -12503,7 +12507,7 @@
       </c>
       <c r="M212" s="8"/>
     </row>
-    <row r="213" spans="2:13" s="7" customFormat="1" ht="23.25">
+    <row r="213" spans="2:13" s="7" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B213" s="7" t="s">
         <v>66</v>
       </c>
@@ -12539,7 +12543,7 @@
       </c>
       <c r="M213" s="8"/>
     </row>
-    <row r="214" spans="2:13" s="7" customFormat="1" ht="23.25">
+    <row r="214" spans="2:13" s="7" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B214" s="7" t="s">
         <v>23</v>
       </c>
@@ -12572,7 +12576,7 @@
       </c>
       <c r="M214" s="8"/>
     </row>
-    <row r="215" spans="2:13" s="7" customFormat="1" ht="23.25">
+    <row r="215" spans="2:13" s="7" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B215" s="7" t="s">
         <v>584</v>
       </c>
@@ -12608,7 +12612,7 @@
       </c>
       <c r="M215" s="8"/>
     </row>
-    <row r="216" spans="2:13" s="7" customFormat="1" ht="23.25">
+    <row r="216" spans="2:13" s="7" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B216" s="7" t="s">
         <v>196</v>
       </c>
@@ -12641,7 +12645,7 @@
       </c>
       <c r="M216" s="8"/>
     </row>
-    <row r="217" spans="2:13" s="7" customFormat="1" ht="23.25">
+    <row r="217" spans="2:13" s="7" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B217" s="7" t="s">
         <v>173</v>
       </c>
@@ -12677,7 +12681,7 @@
       </c>
       <c r="M217" s="8"/>
     </row>
-    <row r="218" spans="2:13" s="7" customFormat="1" ht="23.25">
+    <row r="218" spans="2:13" s="7" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B218" s="7" t="s">
         <v>188</v>
       </c>
@@ -12713,7 +12717,7 @@
       </c>
       <c r="M218" s="8"/>
     </row>
-    <row r="219" spans="2:13" s="7" customFormat="1" ht="23.25">
+    <row r="219" spans="2:13" s="7" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B219" s="7" t="s">
         <v>456</v>
       </c>
@@ -12749,7 +12753,7 @@
       </c>
       <c r="M219" s="8"/>
     </row>
-    <row r="220" spans="2:13" s="7" customFormat="1" ht="23.25">
+    <row r="220" spans="2:13" s="7" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B220" s="7" t="s">
         <v>105</v>
       </c>
@@ -12782,7 +12786,7 @@
       </c>
       <c r="M220" s="8"/>
     </row>
-    <row r="221" spans="2:13" s="7" customFormat="1" ht="23.25">
+    <row r="221" spans="2:13" s="7" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B221" s="7" t="s">
         <v>601</v>
       </c>
@@ -12815,7 +12819,7 @@
       </c>
       <c r="M221" s="8"/>
     </row>
-    <row r="222" spans="2:13" s="7" customFormat="1" ht="23.25">
+    <row r="222" spans="2:13" s="7" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B222" s="7" t="s">
         <v>605</v>
       </c>
@@ -12848,7 +12852,7 @@
       </c>
       <c r="M222" s="8"/>
     </row>
-    <row r="223" spans="2:13" s="7" customFormat="1" ht="23.25">
+    <row r="223" spans="2:13" s="7" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B223" s="7" t="s">
         <v>383</v>
       </c>
@@ -12881,7 +12885,7 @@
       </c>
       <c r="M223" s="8"/>
     </row>
-    <row r="224" spans="2:13" s="7" customFormat="1" ht="23.25">
+    <row r="224" spans="2:13" s="7" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B224" s="7" t="s">
         <v>611</v>
       </c>
@@ -12914,7 +12918,7 @@
       </c>
       <c r="M224" s="8"/>
     </row>
-    <row r="225" spans="2:13" s="7" customFormat="1" ht="23.25">
+    <row r="225" spans="2:13" s="7" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B225" s="7" t="s">
         <v>11</v>
       </c>
@@ -12947,7 +12951,7 @@
       </c>
       <c r="M225" s="8"/>
     </row>
-    <row r="226" spans="2:13" s="7" customFormat="1" ht="23.25">
+    <row r="226" spans="2:13" s="7" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B226" s="7" t="s">
         <v>223</v>
       </c>
@@ -12983,7 +12987,7 @@
       </c>
       <c r="M226" s="8"/>
     </row>
-    <row r="227" spans="2:13" s="7" customFormat="1" ht="23.25">
+    <row r="227" spans="2:13" s="7" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B227" s="7" t="s">
         <v>177</v>
       </c>
@@ -13016,7 +13020,7 @@
       </c>
       <c r="M227" s="8"/>
     </row>
-    <row r="228" spans="2:13" s="7" customFormat="1" ht="23.25">
+    <row r="228" spans="2:13" s="7" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B228" s="7" t="s">
         <v>108</v>
       </c>
@@ -13052,7 +13056,7 @@
       </c>
       <c r="M228" s="8"/>
     </row>
-    <row r="229" spans="2:13" s="7" customFormat="1" ht="23.25">
+    <row r="229" spans="2:13" s="7" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B229" s="7" t="s">
         <v>123</v>
       </c>
@@ -13085,7 +13089,7 @@
       </c>
       <c r="M229" s="8"/>
     </row>
-    <row r="230" spans="2:13" s="7" customFormat="1" ht="23.25">
+    <row r="230" spans="2:13" s="7" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B230" s="7" t="s">
         <v>141</v>
       </c>
@@ -13121,7 +13125,7 @@
       </c>
       <c r="M230" s="8"/>
     </row>
-    <row r="231" spans="2:13" s="7" customFormat="1" ht="23.25">
+    <row r="231" spans="2:13" s="7" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B231" s="7" t="s">
         <v>80</v>
       </c>
@@ -13154,7 +13158,7 @@
       </c>
       <c r="M231" s="8"/>
     </row>
-    <row r="232" spans="2:13" s="7" customFormat="1" ht="23.25">
+    <row r="232" spans="2:13" s="7" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B232" s="7" t="s">
         <v>630</v>
       </c>
@@ -13190,7 +13194,7 @@
       </c>
       <c r="M232" s="8"/>
     </row>
-    <row r="233" spans="2:13" s="7" customFormat="1" ht="23.25">
+    <row r="233" spans="2:13" s="7" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B233" s="7" t="s">
         <v>173</v>
       </c>
@@ -13223,7 +13227,7 @@
       </c>
       <c r="M233" s="8"/>
     </row>
-    <row r="234" spans="2:13" s="7" customFormat="1" ht="23.25">
+    <row r="234" spans="2:13" s="7" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B234" s="7" t="s">
         <v>96</v>
       </c>
@@ -13256,7 +13260,7 @@
       </c>
       <c r="M234" s="8"/>
     </row>
-    <row r="235" spans="2:13" s="7" customFormat="1" ht="23.25">
+    <row r="235" spans="2:13" s="7" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B235" s="7" t="s">
         <v>440</v>
       </c>
@@ -13289,7 +13293,7 @@
       </c>
       <c r="M235" s="8"/>
     </row>
-    <row r="236" spans="2:13" s="7" customFormat="1" ht="23.25">
+    <row r="236" spans="2:13" s="7" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B236" s="7" t="s">
         <v>18</v>
       </c>
@@ -13322,7 +13326,7 @@
       </c>
       <c r="M236" s="8"/>
     </row>
-    <row r="237" spans="2:13" s="7" customFormat="1" ht="23.25">
+    <row r="237" spans="2:13" s="7" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B237" s="7" t="s">
         <v>308</v>
       </c>
@@ -13355,7 +13359,7 @@
       </c>
       <c r="M237" s="8"/>
     </row>
-    <row r="238" spans="2:13" s="7" customFormat="1" ht="23.25">
+    <row r="238" spans="2:13" s="7" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B238" s="7" t="s">
         <v>38</v>
       </c>
@@ -13391,7 +13395,7 @@
       </c>
       <c r="M238" s="8"/>
     </row>
-    <row r="239" spans="2:13" s="7" customFormat="1" ht="23.25">
+    <row r="239" spans="2:13" s="7" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B239" s="7" t="s">
         <v>308</v>
       </c>
@@ -13424,7 +13428,7 @@
       </c>
       <c r="M239" s="8"/>
     </row>
-    <row r="240" spans="2:13" s="9" customFormat="1" ht="23.25">
+    <row r="240" spans="2:13" s="9" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B240" s="9" t="s">
         <v>188</v>
       </c>
@@ -13457,7 +13461,7 @@
       </c>
       <c r="M240" s="10"/>
     </row>
-    <row r="241" spans="2:13" s="7" customFormat="1" ht="23.25">
+    <row r="241" spans="2:13" s="7" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B241" s="7" t="s">
         <v>18</v>
       </c>
@@ -13490,7 +13494,7 @@
       </c>
       <c r="M241" s="8"/>
     </row>
-    <row r="242" spans="2:13" s="7" customFormat="1" ht="23.25">
+    <row r="242" spans="2:13" s="7" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B242" s="7" t="s">
         <v>653</v>
       </c>
@@ -13523,7 +13527,7 @@
       </c>
       <c r="M242" s="8"/>
     </row>
-    <row r="243" spans="2:13" s="7" customFormat="1" ht="23.25">
+    <row r="243" spans="2:13" s="7" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B243" s="7" t="s">
         <v>656</v>
       </c>
@@ -13559,7 +13563,7 @@
       </c>
       <c r="M243" s="8"/>
     </row>
-    <row r="244" spans="2:13" s="7" customFormat="1" ht="23.25">
+    <row r="244" spans="2:13" s="7" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B244" s="7" t="s">
         <v>141</v>
       </c>
@@ -13595,7 +13599,7 @@
       </c>
       <c r="M244" s="8"/>
     </row>
-    <row r="245" spans="2:13" s="7" customFormat="1" ht="23.25">
+    <row r="245" spans="2:13" s="7" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B245" s="7" t="s">
         <v>66</v>
       </c>
@@ -13628,7 +13632,7 @@
       </c>
       <c r="M245" s="8"/>
     </row>
-    <row r="246" spans="2:13" s="7" customFormat="1" ht="23.25">
+    <row r="246" spans="2:13" s="7" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B246" s="7" t="s">
         <v>86</v>
       </c>
@@ -13664,7 +13668,7 @@
       </c>
       <c r="M246" s="8"/>
     </row>
-    <row r="247" spans="2:13" s="7" customFormat="1" ht="23.25">
+    <row r="247" spans="2:13" s="7" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B247" s="7" t="s">
         <v>429</v>
       </c>
@@ -13700,7 +13704,7 @@
       </c>
       <c r="M247" s="8"/>
     </row>
-    <row r="248" spans="2:13" s="7" customFormat="1" ht="23.25">
+    <row r="248" spans="2:13" s="7" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B248" s="7" t="s">
         <v>456</v>
       </c>
@@ -13733,7 +13737,7 @@
       </c>
       <c r="M248" s="8"/>
     </row>
-    <row r="249" spans="2:13" s="7" customFormat="1" ht="23.25">
+    <row r="249" spans="2:13" s="7" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B249" s="7" t="s">
         <v>144</v>
       </c>
@@ -13766,7 +13770,7 @@
       </c>
       <c r="M249" s="8"/>
     </row>
-    <row r="250" spans="2:13" s="7" customFormat="1" ht="23.25">
+    <row r="250" spans="2:13" s="7" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B250" s="7" t="s">
         <v>66</v>
       </c>
@@ -13799,7 +13803,7 @@
       </c>
       <c r="M250" s="8"/>
     </row>
-    <row r="251" spans="2:13" s="7" customFormat="1" ht="23.25">
+    <row r="251" spans="2:13" s="7" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B251" s="7" t="s">
         <v>27</v>
       </c>
@@ -13832,7 +13836,7 @@
       </c>
       <c r="M251" s="8"/>
     </row>
-    <row r="252" spans="2:13" s="7" customFormat="1" ht="23.25">
+    <row r="252" spans="2:13" s="7" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B252" s="7" t="s">
         <v>235</v>
       </c>
@@ -13865,7 +13869,7 @@
       </c>
       <c r="M252" s="8"/>
     </row>
-    <row r="253" spans="2:13" s="7" customFormat="1" ht="23.25">
+    <row r="253" spans="2:13" s="7" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B253" s="7" t="s">
         <v>152</v>
       </c>
@@ -13898,7 +13902,7 @@
       </c>
       <c r="M253" s="8"/>
     </row>
-    <row r="254" spans="2:13" s="7" customFormat="1" ht="23.25">
+    <row r="254" spans="2:13" s="7" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B254" s="7" t="s">
         <v>514</v>
       </c>
@@ -13934,7 +13938,7 @@
       </c>
       <c r="M254" s="8"/>
     </row>
-    <row r="255" spans="2:13" s="7" customFormat="1" ht="23.25">
+    <row r="255" spans="2:13" s="7" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B255" s="7" t="s">
         <v>71</v>
       </c>
@@ -13967,7 +13971,7 @@
       </c>
       <c r="M255" s="8"/>
     </row>
-    <row r="256" spans="2:13" s="7" customFormat="1" ht="23.25">
+    <row r="256" spans="2:13" s="7" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B256" s="7" t="s">
         <v>229</v>
       </c>
@@ -14000,7 +14004,7 @@
       </c>
       <c r="M256" s="8"/>
     </row>
-    <row r="257" spans="2:13" s="7" customFormat="1" ht="23.25">
+    <row r="257" spans="2:13" s="7" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B257" s="7" t="s">
         <v>173</v>
       </c>
@@ -14033,7 +14037,7 @@
       </c>
       <c r="M257" s="8"/>
     </row>
-    <row r="258" spans="2:13" s="7" customFormat="1" ht="23.25">
+    <row r="258" spans="2:13" s="7" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B258" s="7" t="s">
         <v>383</v>
       </c>
@@ -14069,7 +14073,7 @@
       </c>
       <c r="M258" s="8"/>
     </row>
-    <row r="259" spans="2:13" s="7" customFormat="1" ht="23.25">
+    <row r="259" spans="2:13" s="7" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B259" s="7" t="s">
         <v>108</v>
       </c>
@@ -14105,7 +14109,7 @@
       </c>
       <c r="M259" s="8"/>
     </row>
-    <row r="260" spans="2:13" s="7" customFormat="1" ht="23.25">
+    <row r="260" spans="2:13" s="7" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B260" s="7" t="s">
         <v>71</v>
       </c>
@@ -14141,7 +14145,7 @@
       </c>
       <c r="M260" s="8"/>
     </row>
-    <row r="261" spans="2:13" s="7" customFormat="1" ht="23.25">
+    <row r="261" spans="2:13" s="7" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B261" s="7" t="s">
         <v>18</v>
       </c>
@@ -14174,7 +14178,7 @@
       </c>
       <c r="M261" s="8"/>
     </row>
-    <row r="262" spans="2:13" s="7" customFormat="1" ht="23.25">
+    <row r="262" spans="2:13" s="7" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B262" s="7" t="s">
         <v>34</v>
       </c>
@@ -14210,7 +14214,7 @@
       </c>
       <c r="M262" s="8"/>
     </row>
-    <row r="263" spans="2:13" s="7" customFormat="1" ht="23.25">
+    <row r="263" spans="2:13" s="7" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B263" s="7" t="s">
         <v>34</v>
       </c>
@@ -14243,7 +14247,7 @@
       </c>
       <c r="M263" s="8"/>
     </row>
-    <row r="264" spans="2:13" s="7" customFormat="1" ht="23.25">
+    <row r="264" spans="2:13" s="7" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B264" s="7" t="s">
         <v>173</v>
       </c>
@@ -14276,7 +14280,7 @@
       </c>
       <c r="M264" s="8"/>
     </row>
-    <row r="265" spans="2:13" s="7" customFormat="1" ht="23.25">
+    <row r="265" spans="2:13" s="7" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B265" s="7" t="s">
         <v>42</v>
       </c>
@@ -14309,7 +14313,7 @@
       </c>
       <c r="M265" s="8"/>
     </row>
-    <row r="266" spans="2:13" s="7" customFormat="1" ht="23.25">
+    <row r="266" spans="2:13" s="7" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B266" s="7" t="s">
         <v>105</v>
       </c>
@@ -14342,7 +14346,7 @@
       </c>
       <c r="M266" s="8"/>
     </row>
-    <row r="267" spans="2:13" s="7" customFormat="1" ht="23.25">
+    <row r="267" spans="2:13" s="7" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B267" s="7" t="s">
         <v>86</v>
       </c>
@@ -14375,7 +14379,7 @@
       </c>
       <c r="M267" s="8"/>
     </row>
-    <row r="268" spans="2:13" s="7" customFormat="1" ht="23.25">
+    <row r="268" spans="2:13" s="7" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B268" s="7" t="s">
         <v>158</v>
       </c>
@@ -14408,7 +14412,7 @@
       </c>
       <c r="M268" s="8"/>
     </row>
-    <row r="269" spans="2:13" s="7" customFormat="1" ht="23.25">
+    <row r="269" spans="2:13" s="7" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B269" s="7" t="s">
         <v>108</v>
       </c>
@@ -14441,7 +14445,7 @@
       </c>
       <c r="M269" s="8"/>
     </row>
-    <row r="270" spans="2:13" s="7" customFormat="1" ht="23.25">
+    <row r="270" spans="2:13" s="7" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B270" s="7" t="s">
         <v>177</v>
       </c>
@@ -14474,7 +14478,7 @@
       </c>
       <c r="M270" s="8"/>
     </row>
-    <row r="271" spans="2:13" s="7" customFormat="1" ht="23.25">
+    <row r="271" spans="2:13" s="7" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B271" s="7" t="s">
         <v>308</v>
       </c>
@@ -14507,7 +14511,7 @@
       </c>
       <c r="M271" s="8"/>
     </row>
-    <row r="272" spans="2:13" s="7" customFormat="1" ht="23.25">
+    <row r="272" spans="2:13" s="7" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B272" s="7" t="s">
         <v>18</v>
       </c>
@@ -14543,7 +14547,7 @@
       </c>
       <c r="M272" s="8"/>
     </row>
-    <row r="273" spans="2:13" s="7" customFormat="1" ht="23.25">
+    <row r="273" spans="2:13" s="7" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B273" s="7" t="s">
         <v>296</v>
       </c>
@@ -14576,7 +14580,7 @@
       </c>
       <c r="M273" s="8"/>
     </row>
-    <row r="274" spans="2:13" s="7" customFormat="1" ht="23.25">
+    <row r="274" spans="2:13" s="7" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B274" s="7" t="s">
         <v>177</v>
       </c>
@@ -14609,7 +14613,7 @@
       </c>
       <c r="M274" s="8"/>
     </row>
-    <row r="275" spans="2:13" s="7" customFormat="1" ht="23.25">
+    <row r="275" spans="2:13" s="7" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B275" s="7" t="s">
         <v>199</v>
       </c>
@@ -14642,7 +14646,7 @@
       </c>
       <c r="M275" s="8"/>
     </row>
-    <row r="276" spans="2:13" s="7" customFormat="1" ht="23.25">
+    <row r="276" spans="2:13" s="7" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B276" s="7" t="s">
         <v>188</v>
       </c>
@@ -14678,7 +14682,7 @@
       </c>
       <c r="M276" s="8"/>
     </row>
-    <row r="277" spans="2:13" s="7" customFormat="1" ht="23.25">
+    <row r="277" spans="2:13" s="7" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B277" s="7" t="s">
         <v>18</v>
       </c>
@@ -14711,7 +14715,7 @@
       </c>
       <c r="M277" s="8"/>
     </row>
-    <row r="278" spans="2:13" s="7" customFormat="1" ht="23.25">
+    <row r="278" spans="2:13" s="7" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B278" s="7" t="s">
         <v>34</v>
       </c>
@@ -14744,7 +14748,7 @@
       </c>
       <c r="M278" s="8"/>
     </row>
-    <row r="279" spans="2:13" s="7" customFormat="1" ht="23.25">
+    <row r="279" spans="2:13" s="7" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B279" s="7" t="s">
         <v>745</v>
       </c>
@@ -14777,7 +14781,7 @@
       </c>
       <c r="M279" s="8"/>
     </row>
-    <row r="280" spans="2:13" s="7" customFormat="1" ht="23.25">
+    <row r="280" spans="2:13" s="7" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B280" s="7" t="s">
         <v>749</v>
       </c>
@@ -14810,7 +14814,7 @@
       </c>
       <c r="M280" s="8"/>
     </row>
-    <row r="281" spans="2:13" s="7" customFormat="1" ht="23.25">
+    <row r="281" spans="2:13" s="7" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B281" s="7" t="s">
         <v>53</v>
       </c>
@@ -14843,7 +14847,7 @@
       </c>
       <c r="M281" s="8"/>
     </row>
-    <row r="282" spans="2:13" s="7" customFormat="1" ht="23.25">
+    <row r="282" spans="2:13" s="7" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B282" s="7" t="s">
         <v>158</v>
       </c>
@@ -14876,7 +14880,7 @@
       </c>
       <c r="M282" s="8"/>
     </row>
-    <row r="283" spans="2:13" s="7" customFormat="1" ht="23.25">
+    <row r="283" spans="2:13" s="7" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B283" s="7" t="s">
         <v>123</v>
       </c>
@@ -14909,7 +14913,7 @@
       </c>
       <c r="M283" s="8"/>
     </row>
-    <row r="284" spans="2:13" s="7" customFormat="1" ht="23.25">
+    <row r="284" spans="2:13" s="7" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B284" s="7" t="s">
         <v>429</v>
       </c>
@@ -14942,7 +14946,7 @@
       </c>
       <c r="M284" s="8"/>
     </row>
-    <row r="285" spans="2:13" s="7" customFormat="1" ht="23.25">
+    <row r="285" spans="2:13" s="7" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B285" s="7" t="s">
         <v>335</v>
       </c>
@@ -14975,7 +14979,7 @@
       </c>
       <c r="M285" s="8"/>
     </row>
-    <row r="286" spans="2:13" s="7" customFormat="1" ht="23.25">
+    <row r="286" spans="2:13" s="7" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B286" s="7" t="s">
         <v>196</v>
       </c>
@@ -15008,7 +15012,7 @@
       </c>
       <c r="M286" s="8"/>
     </row>
-    <row r="287" spans="2:13" s="7" customFormat="1" ht="23.25">
+    <row r="287" spans="2:13" s="7" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B287" s="7" t="s">
         <v>96</v>
       </c>
@@ -15044,7 +15048,7 @@
       </c>
       <c r="M287" s="8"/>
     </row>
-    <row r="288" spans="2:13" s="7" customFormat="1" ht="23.25">
+    <row r="288" spans="2:13" s="7" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B288" s="7" t="s">
         <v>11</v>
       </c>
@@ -15077,7 +15081,7 @@
       </c>
       <c r="M288" s="8"/>
     </row>
-    <row r="289" spans="2:13" s="7" customFormat="1" ht="23.25">
+    <row r="289" spans="2:13" s="7" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B289" s="7" t="s">
         <v>289</v>
       </c>
@@ -15110,7 +15114,7 @@
       </c>
       <c r="M289" s="8"/>
     </row>
-    <row r="290" spans="2:13" s="7" customFormat="1" ht="23.25">
+    <row r="290" spans="2:13" s="7" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B290" s="7" t="s">
         <v>773</v>
       </c>
@@ -15143,7 +15147,7 @@
       </c>
       <c r="M290" s="8"/>
     </row>
-    <row r="291" spans="2:13" s="7" customFormat="1" ht="23.25">
+    <row r="291" spans="2:13" s="7" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B291" s="7" t="s">
         <v>105</v>
       </c>
@@ -15176,7 +15180,7 @@
       </c>
       <c r="M291" s="8"/>
     </row>
-    <row r="292" spans="2:13" s="7" customFormat="1" ht="23.25">
+    <row r="292" spans="2:13" s="7" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B292" s="7" t="s">
         <v>173</v>
       </c>
@@ -15209,7 +15213,7 @@
       </c>
       <c r="M292" s="8"/>
     </row>
-    <row r="293" spans="2:13" s="7" customFormat="1" ht="23.25">
+    <row r="293" spans="2:13" s="7" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B293" s="7" t="s">
         <v>18</v>
       </c>
@@ -15242,7 +15246,7 @@
       </c>
       <c r="M293" s="8"/>
     </row>
-    <row r="294" spans="2:13" s="7" customFormat="1" ht="23.25">
+    <row r="294" spans="2:13" s="7" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B294" s="7" t="s">
         <v>105</v>
       </c>
@@ -15275,7 +15279,7 @@
       </c>
       <c r="M294" s="8"/>
     </row>
-    <row r="295" spans="2:13" s="7" customFormat="1" ht="23.25">
+    <row r="295" spans="2:13" s="7" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B295" s="7" t="s">
         <v>66</v>
       </c>
@@ -15311,7 +15315,7 @@
       </c>
       <c r="M295" s="8"/>
     </row>
-    <row r="296" spans="2:13" s="7" customFormat="1" ht="23.25">
+    <row r="296" spans="2:13" s="7" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B296" s="7" t="s">
         <v>173</v>
       </c>
@@ -15347,7 +15351,7 @@
       </c>
       <c r="M296" s="8"/>
     </row>
-    <row r="297" spans="2:13" s="7" customFormat="1" ht="23.25">
+    <row r="297" spans="2:13" s="7" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B297" s="7" t="s">
         <v>180</v>
       </c>
@@ -15383,7 +15387,7 @@
       </c>
       <c r="M297" s="8"/>
     </row>
-    <row r="298" spans="2:13" s="7" customFormat="1" ht="23.25">
+    <row r="298" spans="2:13" s="7" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B298" s="7" t="s">
         <v>296</v>
       </c>
@@ -15419,7 +15423,7 @@
       </c>
       <c r="M298" s="8"/>
     </row>
-    <row r="299" spans="2:13" s="7" customFormat="1" ht="23.25">
+    <row r="299" spans="2:13" s="7" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B299" s="7" t="s">
         <v>66</v>
       </c>
@@ -15452,7 +15456,7 @@
       </c>
       <c r="M299" s="8"/>
     </row>
-    <row r="300" spans="2:13" s="7" customFormat="1" ht="23.25">
+    <row r="300" spans="2:13" s="7" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B300" s="7" t="s">
         <v>798</v>
       </c>
@@ -15485,7 +15489,7 @@
       </c>
       <c r="M300" s="8"/>
     </row>
-    <row r="301" spans="2:13" s="7" customFormat="1" ht="23.25">
+    <row r="301" spans="2:13" s="7" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B301" s="7" t="s">
         <v>66</v>
       </c>
@@ -15518,7 +15522,7 @@
       </c>
       <c r="M301" s="8"/>
     </row>
-    <row r="302" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="302" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B302" s="3" t="s">
         <v>80</v>
       </c>
@@ -15551,7 +15555,7 @@
       </c>
       <c r="M302" s="4"/>
     </row>
-    <row r="303" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="303" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B303" s="3" t="s">
         <v>144</v>
       </c>
@@ -15584,7 +15588,7 @@
       </c>
       <c r="M303" s="4"/>
     </row>
-    <row r="304" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="304" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B304" s="3" t="s">
         <v>158</v>
       </c>
@@ -15617,7 +15621,7 @@
       </c>
       <c r="M304" s="4"/>
     </row>
-    <row r="305" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="305" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B305" s="3" t="s">
         <v>11</v>
       </c>
@@ -15650,7 +15654,7 @@
       </c>
       <c r="M305" s="4"/>
     </row>
-    <row r="306" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="306" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B306" s="3" t="s">
         <v>749</v>
       </c>
@@ -15683,7 +15687,7 @@
       </c>
       <c r="M306" s="4"/>
     </row>
-    <row r="307" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="307" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B307" s="3" t="s">
         <v>229</v>
       </c>
@@ -15716,7 +15720,7 @@
       </c>
       <c r="M307" s="4"/>
     </row>
-    <row r="308" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="308" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B308" s="3" t="s">
         <v>173</v>
       </c>
@@ -15749,7 +15753,7 @@
       </c>
       <c r="M308" s="4"/>
     </row>
-    <row r="309" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="309" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B309" s="3" t="s">
         <v>136</v>
       </c>
@@ -15785,7 +15789,7 @@
       </c>
       <c r="M309" s="4"/>
     </row>
-    <row r="310" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="310" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B310" s="3" t="s">
         <v>11</v>
       </c>
@@ -15818,7 +15822,7 @@
       </c>
       <c r="M310" s="4"/>
     </row>
-    <row r="311" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="311" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B311" s="3" t="s">
         <v>308</v>
       </c>
@@ -15854,7 +15858,7 @@
       </c>
       <c r="M311" s="4"/>
     </row>
-    <row r="312" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="312" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B312" s="3" t="s">
         <v>745</v>
       </c>
@@ -15890,7 +15894,7 @@
       </c>
       <c r="M312" s="4"/>
     </row>
-    <row r="313" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="313" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B313" s="3" t="s">
         <v>173</v>
       </c>
@@ -15926,7 +15930,7 @@
       </c>
       <c r="M313" s="4"/>
     </row>
-    <row r="314" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="314" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B314" s="3" t="s">
         <v>173</v>
       </c>
@@ -15959,7 +15963,7 @@
       </c>
       <c r="M314" s="4"/>
     </row>
-    <row r="315" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="315" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B315" s="3" t="s">
         <v>229</v>
       </c>
@@ -15995,7 +15999,7 @@
       </c>
       <c r="M315" s="4"/>
     </row>
-    <row r="316" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="316" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B316" s="3" t="s">
         <v>66</v>
       </c>
@@ -16028,7 +16032,7 @@
       </c>
       <c r="M316" s="4"/>
     </row>
-    <row r="317" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="317" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B317" s="3" t="s">
         <v>66</v>
       </c>
@@ -16061,7 +16065,7 @@
       </c>
       <c r="M317" s="4"/>
     </row>
-    <row r="318" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="318" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B318" s="3" t="s">
         <v>102</v>
       </c>
@@ -16094,7 +16098,7 @@
       </c>
       <c r="M318" s="4"/>
     </row>
-    <row r="319" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="319" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B319" s="3" t="s">
         <v>325</v>
       </c>
@@ -16130,7 +16134,7 @@
       </c>
       <c r="M319" s="4"/>
     </row>
-    <row r="320" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="320" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B320" s="3" t="s">
         <v>49</v>
       </c>
@@ -16166,7 +16170,7 @@
       </c>
       <c r="M320" s="4"/>
     </row>
-    <row r="321" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="321" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B321" s="3" t="s">
         <v>862</v>
       </c>
@@ -16199,7 +16203,7 @@
       </c>
       <c r="M321" s="4"/>
     </row>
-    <row r="322" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="322" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B322" s="3" t="s">
         <v>229</v>
       </c>
@@ -16235,7 +16239,7 @@
       </c>
       <c r="M322" s="4"/>
     </row>
-    <row r="323" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="323" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B323" s="3" t="s">
         <v>188</v>
       </c>
@@ -16268,7 +16272,7 @@
       </c>
       <c r="M323" s="4"/>
     </row>
-    <row r="324" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="324" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B324" s="3" t="s">
         <v>152</v>
       </c>
@@ -16301,7 +16305,7 @@
       </c>
       <c r="M324" s="4"/>
     </row>
-    <row r="325" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="325" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B325" s="3" t="s">
         <v>876</v>
       </c>
@@ -16337,7 +16341,7 @@
       </c>
       <c r="M325" s="4"/>
     </row>
-    <row r="326" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="326" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B326" s="3" t="s">
         <v>11</v>
       </c>
@@ -16370,7 +16374,7 @@
       </c>
       <c r="M326" s="4"/>
     </row>
-    <row r="327" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="327" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B327" s="3" t="s">
         <v>881</v>
       </c>
@@ -16403,7 +16407,7 @@
       </c>
       <c r="M327" s="4"/>
     </row>
-    <row r="328" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="328" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B328" s="3" t="s">
         <v>123</v>
       </c>
@@ -16436,7 +16440,7 @@
       </c>
       <c r="M328" s="4"/>
     </row>
-    <row r="329" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="329" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B329" s="3" t="s">
         <v>18</v>
       </c>
@@ -16471,7 +16475,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="330" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="330" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B330" s="3" t="s">
         <v>11</v>
       </c>
@@ -16504,7 +16508,7 @@
       </c>
       <c r="M330" s="4"/>
     </row>
-    <row r="331" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="331" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B331" s="3" t="s">
         <v>240</v>
       </c>
@@ -16537,7 +16541,7 @@
       </c>
       <c r="M331" s="4"/>
     </row>
-    <row r="332" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="332" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B332" s="3" t="s">
         <v>456</v>
       </c>
@@ -16570,7 +16574,7 @@
       </c>
       <c r="M332" s="4"/>
     </row>
-    <row r="333" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="333" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B333" s="3" t="s">
         <v>223</v>
       </c>
@@ -16606,7 +16610,7 @@
       </c>
       <c r="M333" s="4"/>
     </row>
-    <row r="334" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="334" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B334" s="3" t="s">
         <v>144</v>
       </c>
@@ -16642,7 +16646,7 @@
       </c>
       <c r="M334" s="4"/>
     </row>
-    <row r="335" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="335" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B335" s="3" t="s">
         <v>383</v>
       </c>
@@ -16675,7 +16679,7 @@
       </c>
       <c r="M335" s="4"/>
     </row>
-    <row r="336" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="336" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B336" s="3" t="s">
         <v>105</v>
       </c>
@@ -16711,7 +16715,7 @@
       </c>
       <c r="M336" s="4"/>
     </row>
-    <row r="337" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="337" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B337" s="3" t="s">
         <v>144</v>
       </c>
@@ -16744,7 +16748,7 @@
       </c>
       <c r="M337" s="4"/>
     </row>
-    <row r="338" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="338" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B338" s="3" t="s">
         <v>180</v>
       </c>
@@ -16780,7 +16784,7 @@
       </c>
       <c r="M338" s="4"/>
     </row>
-    <row r="339" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="339" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B339" s="3" t="s">
         <v>188</v>
       </c>
@@ -16816,7 +16820,7 @@
       </c>
       <c r="M339" s="4"/>
     </row>
-    <row r="340" spans="2:13" s="5" customFormat="1" ht="23.25">
+    <row r="340" spans="2:13" s="5" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B340" s="5" t="s">
         <v>749</v>
       </c>
@@ -16852,7 +16856,7 @@
       </c>
       <c r="M340" s="6"/>
     </row>
-    <row r="341" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="341" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B341" s="3" t="s">
         <v>918</v>
       </c>
@@ -16885,7 +16889,7 @@
       </c>
       <c r="M341" s="4"/>
     </row>
-    <row r="342" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="342" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B342" s="3" t="s">
         <v>42</v>
       </c>
@@ -16918,7 +16922,7 @@
       </c>
       <c r="M342" s="4"/>
     </row>
-    <row r="343" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="343" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B343" s="3" t="s">
         <v>34</v>
       </c>
@@ -16951,7 +16955,7 @@
       </c>
       <c r="M343" s="4"/>
     </row>
-    <row r="344" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="344" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B344" s="3" t="s">
         <v>120</v>
       </c>
@@ -16984,7 +16988,7 @@
       </c>
       <c r="M344" s="4"/>
     </row>
-    <row r="345" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="345" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B345" s="3" t="s">
         <v>158</v>
       </c>
@@ -17020,7 +17024,7 @@
       </c>
       <c r="M345" s="4"/>
     </row>
-    <row r="346" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="346" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B346" s="3" t="s">
         <v>344</v>
       </c>
@@ -17053,7 +17057,7 @@
       </c>
       <c r="M346" s="4"/>
     </row>
-    <row r="347" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="347" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B347" s="3" t="s">
         <v>66</v>
       </c>
@@ -17086,7 +17090,7 @@
       </c>
       <c r="M347" s="4"/>
     </row>
-    <row r="348" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="348" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B348" s="3" t="s">
         <v>308</v>
       </c>
@@ -17122,7 +17126,7 @@
       </c>
       <c r="M348" s="4"/>
     </row>
-    <row r="349" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="349" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B349" s="3" t="s">
         <v>335</v>
       </c>
@@ -17155,7 +17159,7 @@
       </c>
       <c r="M349" s="4"/>
     </row>
-    <row r="350" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="350" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B350" s="3" t="s">
         <v>49</v>
       </c>
@@ -17188,7 +17192,7 @@
       </c>
       <c r="M350" s="4"/>
     </row>
-    <row r="351" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="351" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B351" s="3" t="s">
         <v>429</v>
       </c>
@@ -17221,7 +17225,7 @@
       </c>
       <c r="M351" s="4"/>
     </row>
-    <row r="352" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="352" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B352" s="3" t="s">
         <v>18</v>
       </c>
@@ -17254,7 +17258,7 @@
       </c>
       <c r="M352" s="4"/>
     </row>
-    <row r="353" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="353" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B353" s="3" t="s">
         <v>144</v>
       </c>
@@ -17287,7 +17291,7 @@
       </c>
       <c r="M353" s="4"/>
     </row>
-    <row r="354" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="354" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B354" s="3" t="s">
         <v>456</v>
       </c>
@@ -17320,7 +17324,7 @@
       </c>
       <c r="M354" s="4"/>
     </row>
-    <row r="355" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="355" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B355" s="3" t="s">
         <v>383</v>
       </c>
@@ -17356,7 +17360,7 @@
       </c>
       <c r="M355" s="4"/>
     </row>
-    <row r="356" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="356" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B356" s="3" t="s">
         <v>958</v>
       </c>
@@ -17389,7 +17393,7 @@
       </c>
       <c r="M356" s="4"/>
     </row>
-    <row r="357" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="357" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B357" s="3" t="s">
         <v>102</v>
       </c>
@@ -17422,7 +17426,7 @@
       </c>
       <c r="M357" s="4"/>
     </row>
-    <row r="358" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="358" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B358" s="3" t="s">
         <v>456</v>
       </c>
@@ -17455,7 +17459,7 @@
       </c>
       <c r="M358" s="4"/>
     </row>
-    <row r="359" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="359" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B359" s="3" t="s">
         <v>144</v>
       </c>
@@ -17491,7 +17495,7 @@
       </c>
       <c r="M359" s="4"/>
     </row>
-    <row r="360" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="360" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B360" s="3" t="s">
         <v>188</v>
       </c>
@@ -17527,7 +17531,7 @@
       </c>
       <c r="M360" s="4"/>
     </row>
-    <row r="361" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="361" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B361" s="3" t="s">
         <v>173</v>
       </c>
@@ -17560,7 +17564,7 @@
       </c>
       <c r="M361" s="4"/>
     </row>
-    <row r="362" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="362" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B362" s="3" t="s">
         <v>71</v>
       </c>
@@ -17593,7 +17597,7 @@
       </c>
       <c r="M362" s="4"/>
     </row>
-    <row r="363" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="363" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B363" s="3" t="s">
         <v>918</v>
       </c>
@@ -17629,7 +17633,7 @@
       </c>
       <c r="M363" s="4"/>
     </row>
-    <row r="364" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="364" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B364" s="3" t="s">
         <v>514</v>
       </c>
@@ -17662,7 +17666,7 @@
       </c>
       <c r="M364" s="4"/>
     </row>
-    <row r="365" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="365" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B365" s="3" t="s">
         <v>80</v>
       </c>
@@ -17698,7 +17702,7 @@
       </c>
       <c r="M365" s="4"/>
     </row>
-    <row r="366" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="366" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B366" s="3" t="s">
         <v>188</v>
       </c>
@@ -17731,7 +17735,7 @@
       </c>
       <c r="M366" s="4"/>
     </row>
-    <row r="367" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="367" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B367" s="3" t="s">
         <v>102</v>
       </c>
@@ -17767,7 +17771,7 @@
       </c>
       <c r="M367" s="4"/>
     </row>
-    <row r="368" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="368" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B368" s="3" t="s">
         <v>240</v>
       </c>
@@ -17803,7 +17807,7 @@
       </c>
       <c r="M368" s="4"/>
     </row>
-    <row r="369" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="369" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B369" s="3" t="s">
         <v>358</v>
       </c>
@@ -17839,7 +17843,7 @@
       </c>
       <c r="M369" s="4"/>
     </row>
-    <row r="370" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="370" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B370" s="3" t="s">
         <v>34</v>
       </c>
@@ -17872,7 +17876,7 @@
       </c>
       <c r="M370" s="4"/>
     </row>
-    <row r="371" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="371" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B371" s="3" t="s">
         <v>141</v>
       </c>
@@ -17905,7 +17909,7 @@
       </c>
       <c r="M371" s="4"/>
     </row>
-    <row r="372" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="372" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B372" s="3" t="s">
         <v>229</v>
       </c>
@@ -17938,7 +17942,7 @@
       </c>
       <c r="M372" s="4"/>
     </row>
-    <row r="373" spans="2:13" s="5" customFormat="1" ht="23.25">
+    <row r="373" spans="2:13" s="5" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B373" s="5" t="s">
         <v>99</v>
       </c>
@@ -17974,7 +17978,7 @@
       </c>
       <c r="M373" s="6"/>
     </row>
-    <row r="374" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="374" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B374" s="3" t="s">
         <v>229</v>
       </c>
@@ -18007,7 +18011,7 @@
       </c>
       <c r="M374" s="4"/>
     </row>
-    <row r="375" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="375" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B375" s="3" t="s">
         <v>42</v>
       </c>
@@ -18043,7 +18047,7 @@
       </c>
       <c r="M375" s="4"/>
     </row>
-    <row r="376" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="376" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B376" s="3" t="s">
         <v>105</v>
       </c>
@@ -18076,7 +18080,7 @@
       </c>
       <c r="M376" s="4"/>
     </row>
-    <row r="377" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="377" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B377" s="3" t="s">
         <v>18</v>
       </c>
@@ -18112,7 +18116,7 @@
       </c>
       <c r="M377" s="4"/>
     </row>
-    <row r="378" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="378" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B378" s="3" t="s">
         <v>289</v>
       </c>
@@ -18145,7 +18149,7 @@
       </c>
       <c r="M378" s="4"/>
     </row>
-    <row r="379" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="379" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B379" s="3" t="s">
         <v>325</v>
       </c>
@@ -18178,7 +18182,7 @@
       </c>
       <c r="M379" s="4"/>
     </row>
-    <row r="380" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="380" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B380" s="3" t="s">
         <v>15</v>
       </c>
@@ -18211,7 +18215,7 @@
       </c>
       <c r="M380" s="4"/>
     </row>
-    <row r="381" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="381" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B381" s="3" t="s">
         <v>745</v>
       </c>
@@ -18247,7 +18251,7 @@
       </c>
       <c r="M381" s="4"/>
     </row>
-    <row r="382" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="382" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B382" s="3" t="s">
         <v>514</v>
       </c>
@@ -18280,7 +18284,7 @@
       </c>
       <c r="M382" s="4"/>
     </row>
-    <row r="383" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="383" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B383" s="3" t="s">
         <v>152</v>
       </c>
@@ -18313,7 +18317,7 @@
       </c>
       <c r="M383" s="4"/>
     </row>
-    <row r="384" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="384" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B384" s="3" t="s">
         <v>80</v>
       </c>
@@ -18343,7 +18347,7 @@
       </c>
       <c r="M384" s="4"/>
     </row>
-    <row r="385" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="385" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B385" s="3" t="s">
         <v>440</v>
       </c>
@@ -18379,7 +18383,7 @@
       </c>
       <c r="M385" s="4"/>
     </row>
-    <row r="386" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="386" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B386" s="3" t="s">
         <v>91</v>
       </c>
@@ -18415,7 +18419,7 @@
       </c>
       <c r="M386" s="4"/>
     </row>
-    <row r="387" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="387" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B387" s="3" t="s">
         <v>177</v>
       </c>
@@ -18448,7 +18452,7 @@
       </c>
       <c r="M387" s="4"/>
     </row>
-    <row r="388" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="388" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B388" s="3" t="s">
         <v>240</v>
       </c>
@@ -18481,7 +18485,7 @@
       </c>
       <c r="M388" s="4"/>
     </row>
-    <row r="389" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="389" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B389" s="3" t="s">
         <v>53</v>
       </c>
@@ -18514,7 +18518,7 @@
       </c>
       <c r="M389" s="4"/>
     </row>
-    <row r="390" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="390" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B390" s="3" t="s">
         <v>293</v>
       </c>
@@ -18547,7 +18551,7 @@
       </c>
       <c r="M390" s="4"/>
     </row>
-    <row r="391" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="391" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B391" s="3" t="s">
         <v>34</v>
       </c>
@@ -18583,7 +18587,7 @@
       </c>
       <c r="M391" s="4"/>
     </row>
-    <row r="392" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="392" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B392" s="3" t="s">
         <v>99</v>
       </c>
@@ -18616,7 +18620,7 @@
       </c>
       <c r="M392" s="4"/>
     </row>
-    <row r="393" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="393" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B393" s="3" t="s">
         <v>66</v>
       </c>
@@ -18649,7 +18653,7 @@
       </c>
       <c r="M393" s="4"/>
     </row>
-    <row r="394" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="394" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B394" s="3" t="s">
         <v>177</v>
       </c>
@@ -18682,7 +18686,7 @@
       </c>
       <c r="M394" s="4"/>
     </row>
-    <row r="395" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="395" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B395" s="3" t="s">
         <v>383</v>
       </c>
@@ -18715,7 +18719,7 @@
       </c>
       <c r="M395" s="4"/>
     </row>
-    <row r="396" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="396" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B396" s="3" t="s">
         <v>53</v>
       </c>
@@ -18748,7 +18752,7 @@
       </c>
       <c r="M396" s="4"/>
     </row>
-    <row r="397" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="397" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B397" s="3" t="s">
         <v>144</v>
       </c>
@@ -18781,7 +18785,7 @@
       </c>
       <c r="M397" s="4"/>
     </row>
-    <row r="398" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="398" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B398" s="3" t="s">
         <v>223</v>
       </c>
@@ -18817,7 +18821,7 @@
       </c>
       <c r="M398" s="4"/>
     </row>
-    <row r="399" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="399" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B399" s="3" t="s">
         <v>96</v>
       </c>
@@ -18853,7 +18857,7 @@
       </c>
       <c r="M399" s="4"/>
     </row>
-    <row r="400" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="400" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B400" s="3" t="s">
         <v>1081</v>
       </c>
@@ -18889,7 +18893,7 @@
       </c>
       <c r="M400" s="4"/>
     </row>
-    <row r="401" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="401" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B401" s="3" t="s">
         <v>456</v>
       </c>
@@ -18925,7 +18929,7 @@
       </c>
       <c r="M401" s="4"/>
     </row>
-    <row r="402" spans="2:13" s="11" customFormat="1" ht="23.25">
+    <row r="402" spans="2:13" s="11" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B402" s="11" t="s">
         <v>180</v>
       </c>
@@ -18958,7 +18962,7 @@
       </c>
       <c r="M402" s="12"/>
     </row>
-    <row r="403" spans="2:13" s="11" customFormat="1" ht="23.25">
+    <row r="403" spans="2:13" s="11" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B403" s="11" t="s">
         <v>240</v>
       </c>
@@ -18994,7 +18998,7 @@
       </c>
       <c r="M403" s="12"/>
     </row>
-    <row r="404" spans="2:13" s="11" customFormat="1" ht="23.25">
+    <row r="404" spans="2:13" s="11" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B404" s="11" t="s">
         <v>344</v>
       </c>
@@ -19030,7 +19034,7 @@
       </c>
       <c r="M404" s="12"/>
     </row>
-    <row r="405" spans="2:13" s="11" customFormat="1" ht="23.25">
+    <row r="405" spans="2:13" s="11" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B405" s="11" t="s">
         <v>15</v>
       </c>
@@ -19063,7 +19067,7 @@
       </c>
       <c r="M405" s="12"/>
     </row>
-    <row r="406" spans="2:13" s="11" customFormat="1" ht="23.25">
+    <row r="406" spans="2:13" s="11" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B406" s="11" t="s">
         <v>383</v>
       </c>
@@ -19099,7 +19103,7 @@
       </c>
       <c r="M406" s="12"/>
     </row>
-    <row r="407" spans="2:13" s="11" customFormat="1" ht="23.25">
+    <row r="407" spans="2:13" s="11" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B407" s="11" t="s">
         <v>173</v>
       </c>
@@ -19132,7 +19136,7 @@
       </c>
       <c r="M407" s="12"/>
     </row>
-    <row r="408" spans="2:13" s="11" customFormat="1" ht="23.25">
+    <row r="408" spans="2:13" s="11" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B408" s="11" t="s">
         <v>456</v>
       </c>
@@ -19168,7 +19172,7 @@
       </c>
       <c r="M408" s="12"/>
     </row>
-    <row r="409" spans="2:13" s="11" customFormat="1" ht="23.25">
+    <row r="409" spans="2:13" s="11" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B409" s="11" t="s">
         <v>27</v>
       </c>
@@ -19204,7 +19208,7 @@
       </c>
       <c r="M409" s="12"/>
     </row>
-    <row r="410" spans="2:13" s="11" customFormat="1" ht="23.25">
+    <row r="410" spans="2:13" s="11" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B410" s="11" t="s">
         <v>105</v>
       </c>
@@ -19237,7 +19241,7 @@
       </c>
       <c r="M410" s="12"/>
     </row>
-    <row r="411" spans="2:13" s="11" customFormat="1" ht="23.25">
+    <row r="411" spans="2:13" s="11" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B411" s="11" t="s">
         <v>15</v>
       </c>
@@ -19270,7 +19274,7 @@
       </c>
       <c r="M411" s="12"/>
     </row>
-    <row r="412" spans="2:13" s="11" customFormat="1" ht="23.25">
+    <row r="412" spans="2:13" s="11" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B412" s="11" t="s">
         <v>71</v>
       </c>
@@ -19303,7 +19307,7 @@
       </c>
       <c r="M412" s="12"/>
     </row>
-    <row r="413" spans="2:13" s="11" customFormat="1" ht="23.25">
+    <row r="413" spans="2:13" s="11" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B413" s="11" t="s">
         <v>1113</v>
       </c>
@@ -19336,7 +19340,7 @@
       </c>
       <c r="M413" s="12"/>
     </row>
-    <row r="414" spans="2:13" s="11" customFormat="1" ht="23.25">
+    <row r="414" spans="2:13" s="11" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B414" s="11" t="s">
         <v>745</v>
       </c>
@@ -19369,7 +19373,7 @@
       </c>
       <c r="M414" s="12"/>
     </row>
-    <row r="415" spans="2:13" s="11" customFormat="1" ht="23.25">
+    <row r="415" spans="2:13" s="11" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B415" s="11" t="s">
         <v>102</v>
       </c>
@@ -19402,7 +19406,7 @@
       </c>
       <c r="M415" s="12"/>
     </row>
-    <row r="416" spans="2:13" s="11" customFormat="1" ht="23.25">
+    <row r="416" spans="2:13" s="11" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B416" s="11" t="s">
         <v>749</v>
       </c>
@@ -19435,7 +19439,7 @@
       </c>
       <c r="M416" s="12"/>
     </row>
-    <row r="417" spans="2:13" s="11" customFormat="1" ht="23.25">
+    <row r="417" spans="2:13" s="11" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B417" s="11" t="s">
         <v>66</v>
       </c>
@@ -19468,7 +19472,7 @@
       </c>
       <c r="M417" s="12"/>
     </row>
-    <row r="418" spans="2:13" s="11" customFormat="1" ht="23.25">
+    <row r="418" spans="2:13" s="11" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B418" s="11" t="s">
         <v>862</v>
       </c>
@@ -19504,7 +19508,7 @@
       </c>
       <c r="M418" s="12"/>
     </row>
-    <row r="419" spans="2:13" s="11" customFormat="1" ht="23.25">
+    <row r="419" spans="2:13" s="11" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B419" s="11" t="s">
         <v>105</v>
       </c>
@@ -19537,7 +19541,7 @@
       </c>
       <c r="M419" s="12"/>
     </row>
-    <row r="420" spans="2:13" s="11" customFormat="1" ht="23.25">
+    <row r="420" spans="2:13" s="11" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B420" s="11" t="s">
         <v>1131</v>
       </c>
@@ -19573,7 +19577,7 @@
       </c>
       <c r="M420" s="12"/>
     </row>
-    <row r="421" spans="2:13" s="11" customFormat="1" ht="23.25">
+    <row r="421" spans="2:13" s="11" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B421" s="11" t="s">
         <v>223</v>
       </c>
@@ -19606,7 +19610,7 @@
       </c>
       <c r="M421" s="12"/>
     </row>
-    <row r="422" spans="2:13" s="11" customFormat="1" ht="23.25">
+    <row r="422" spans="2:13" s="11" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B422" s="11" t="s">
         <v>177</v>
       </c>
@@ -19642,7 +19646,7 @@
       </c>
       <c r="M422" s="12"/>
     </row>
-    <row r="423" spans="2:13" s="11" customFormat="1" ht="23.25">
+    <row r="423" spans="2:13" s="11" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B423" s="11" t="s">
         <v>749</v>
       </c>
@@ -19678,7 +19682,7 @@
       </c>
       <c r="M423" s="12"/>
     </row>
-    <row r="424" spans="2:13" s="11" customFormat="1" ht="23.25">
+    <row r="424" spans="2:13" s="11" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B424" s="11" t="s">
         <v>240</v>
       </c>
@@ -19714,7 +19718,7 @@
       </c>
       <c r="M424" s="12"/>
     </row>
-    <row r="425" spans="2:13" s="11" customFormat="1" ht="23.25">
+    <row r="425" spans="2:13" s="11" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B425" s="11" t="s">
         <v>141</v>
       </c>
@@ -19747,7 +19751,7 @@
       </c>
       <c r="M425" s="12"/>
     </row>
-    <row r="426" spans="2:13" s="11" customFormat="1" ht="23.25">
+    <row r="426" spans="2:13" s="11" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B426" s="11" t="s">
         <v>108</v>
       </c>
@@ -19780,7 +19784,7 @@
       </c>
       <c r="M426" s="12"/>
     </row>
-    <row r="427" spans="2:13" s="11" customFormat="1" ht="23.25">
+    <row r="427" spans="2:13" s="11" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B427" s="11" t="s">
         <v>141</v>
       </c>
@@ -19813,7 +19817,7 @@
       </c>
       <c r="M427" s="12"/>
     </row>
-    <row r="428" spans="2:13" s="11" customFormat="1" ht="23.25">
+    <row r="428" spans="2:13" s="11" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B428" s="11" t="s">
         <v>144</v>
       </c>
@@ -19846,7 +19850,7 @@
       </c>
       <c r="M428" s="12"/>
     </row>
-    <row r="429" spans="2:13" s="11" customFormat="1" ht="23.25">
+    <row r="429" spans="2:13" s="11" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B429" s="11" t="s">
         <v>335</v>
       </c>
@@ -19879,7 +19883,7 @@
       </c>
       <c r="M429" s="12"/>
     </row>
-    <row r="430" spans="2:13" s="11" customFormat="1" ht="23.25">
+    <row r="430" spans="2:13" s="11" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B430" s="11" t="s">
         <v>456</v>
       </c>
@@ -19912,7 +19916,7 @@
       </c>
       <c r="M430" s="12"/>
     </row>
-    <row r="431" spans="2:13" s="11" customFormat="1" ht="23.25">
+    <row r="431" spans="2:13" s="11" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B431" s="11" t="s">
         <v>196</v>
       </c>
@@ -19945,7 +19949,7 @@
       </c>
       <c r="M431" s="12"/>
     </row>
-    <row r="432" spans="2:13" s="11" customFormat="1" ht="23.25">
+    <row r="432" spans="2:13" s="11" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B432" s="11" t="s">
         <v>240</v>
       </c>
@@ -19978,7 +19982,7 @@
       </c>
       <c r="M432" s="12"/>
     </row>
-    <row r="433" spans="2:13" s="11" customFormat="1" ht="23.25">
+    <row r="433" spans="2:13" s="11" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B433" s="11" t="s">
         <v>196</v>
       </c>
@@ -20014,7 +20018,7 @@
       </c>
       <c r="M433" s="12"/>
     </row>
-    <row r="434" spans="2:13" s="11" customFormat="1" ht="23.25">
+    <row r="434" spans="2:13" s="11" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B434" s="11" t="s">
         <v>188</v>
       </c>
@@ -20050,7 +20054,7 @@
       </c>
       <c r="M434" s="12"/>
     </row>
-    <row r="435" spans="2:13" s="11" customFormat="1" ht="23.25">
+    <row r="435" spans="2:13" s="11" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B435" s="11" t="s">
         <v>144</v>
       </c>
@@ -20083,7 +20087,7 @@
       </c>
       <c r="M435" s="12"/>
     </row>
-    <row r="436" spans="2:13" s="11" customFormat="1" ht="23.25">
+    <row r="436" spans="2:13" s="11" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B436" s="11" t="s">
         <v>383</v>
       </c>
@@ -20119,7 +20123,7 @@
       </c>
       <c r="M436" s="12"/>
     </row>
-    <row r="437" spans="2:13" s="11" customFormat="1" ht="23.25">
+    <row r="437" spans="2:13" s="11" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B437" s="11" t="s">
         <v>34</v>
       </c>
@@ -20152,7 +20156,7 @@
       </c>
       <c r="M437" s="12"/>
     </row>
-    <row r="438" spans="2:13" s="11" customFormat="1" ht="23.25">
+    <row r="438" spans="2:13" s="11" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B438" s="11" t="s">
         <v>96</v>
       </c>
@@ -20185,7 +20189,7 @@
       </c>
       <c r="M438" s="12"/>
     </row>
-    <row r="439" spans="2:13" s="11" customFormat="1" ht="23.25">
+    <row r="439" spans="2:13" s="11" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B439" s="11" t="s">
         <v>173</v>
       </c>
@@ -20218,7 +20222,7 @@
       </c>
       <c r="M439" s="12"/>
     </row>
-    <row r="440" spans="2:13" s="13" customFormat="1" ht="23.25">
+    <row r="440" spans="2:13" s="13" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B440" s="13" t="s">
         <v>383</v>
       </c>
@@ -20254,7 +20258,7 @@
       </c>
       <c r="M440" s="14"/>
     </row>
-    <row r="441" spans="2:13" s="11" customFormat="1" ht="23.25">
+    <row r="441" spans="2:13" s="11" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B441" s="11" t="s">
         <v>66</v>
       </c>
@@ -20287,7 +20291,7 @@
       </c>
       <c r="M441" s="12"/>
     </row>
-    <row r="442" spans="2:13" s="11" customFormat="1" ht="23.25">
+    <row r="442" spans="2:13" s="11" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B442" s="11" t="s">
         <v>358</v>
       </c>
@@ -20320,7 +20324,7 @@
       </c>
       <c r="M442" s="12"/>
     </row>
-    <row r="443" spans="2:13" s="11" customFormat="1" ht="23.25">
+    <row r="443" spans="2:13" s="11" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B443" s="11" t="s">
         <v>173</v>
       </c>
@@ -20353,7 +20357,7 @@
       </c>
       <c r="M443" s="12"/>
     </row>
-    <row r="444" spans="2:13" s="13" customFormat="1" ht="23.25">
+    <row r="444" spans="2:13" s="13" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B444" s="13" t="s">
         <v>123</v>
       </c>
@@ -20386,7 +20390,7 @@
       </c>
       <c r="M444" s="14"/>
     </row>
-    <row r="445" spans="2:13" s="11" customFormat="1" ht="23.25">
+    <row r="445" spans="2:13" s="11" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B445" s="11" t="s">
         <v>188</v>
       </c>
@@ -20419,7 +20423,7 @@
       </c>
       <c r="M445" s="12"/>
     </row>
-    <row r="446" spans="2:13" s="11" customFormat="1" ht="23.25">
+    <row r="446" spans="2:13" s="11" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B446" s="11" t="s">
         <v>144</v>
       </c>
@@ -20452,7 +20456,7 @@
       </c>
       <c r="M446" s="12"/>
     </row>
-    <row r="447" spans="2:13" s="13" customFormat="1" ht="23.25">
+    <row r="447" spans="2:13" s="13" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B447" s="13" t="s">
         <v>344</v>
       </c>
@@ -20488,7 +20492,7 @@
       </c>
       <c r="M447" s="14"/>
     </row>
-    <row r="448" spans="2:13" s="11" customFormat="1" ht="23.25">
+    <row r="448" spans="2:13" s="11" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B448" s="11" t="s">
         <v>45</v>
       </c>
@@ -20521,7 +20525,7 @@
       </c>
       <c r="M448" s="12"/>
     </row>
-    <row r="449" spans="2:13" s="11" customFormat="1" ht="23.25">
+    <row r="449" spans="2:13" s="11" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B449" s="11" t="s">
         <v>289</v>
       </c>
@@ -20554,7 +20558,7 @@
       </c>
       <c r="M449" s="12"/>
     </row>
-    <row r="450" spans="2:13" s="11" customFormat="1" ht="23.25">
+    <row r="450" spans="2:13" s="11" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B450" s="11" t="s">
         <v>18</v>
       </c>
@@ -20587,7 +20591,7 @@
       </c>
       <c r="M450" s="12"/>
     </row>
-    <row r="451" spans="2:13" s="11" customFormat="1" ht="23.25">
+    <row r="451" spans="2:13" s="11" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B451" s="11" t="s">
         <v>80</v>
       </c>
@@ -20617,7 +20621,7 @@
       </c>
       <c r="M451" s="12"/>
     </row>
-    <row r="452" spans="2:13" s="11" customFormat="1" ht="23.25">
+    <row r="452" spans="2:13" s="11" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B452" s="11" t="s">
         <v>144</v>
       </c>
@@ -20653,7 +20657,7 @@
       </c>
       <c r="M452" s="12"/>
     </row>
-    <row r="453" spans="2:13" s="11" customFormat="1" ht="23.25">
+    <row r="453" spans="2:13" s="11" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B453" s="11" t="s">
         <v>173</v>
       </c>
@@ -20686,7 +20690,7 @@
       </c>
       <c r="M453" s="12"/>
     </row>
-    <row r="454" spans="2:13" s="11" customFormat="1" ht="23.25">
+    <row r="454" spans="2:13" s="11" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B454" s="11" t="s">
         <v>11</v>
       </c>
@@ -20719,7 +20723,7 @@
       </c>
       <c r="M454" s="12"/>
     </row>
-    <row r="455" spans="2:13" s="11" customFormat="1" ht="23.25">
+    <row r="455" spans="2:13" s="11" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B455" s="11" t="s">
         <v>745</v>
       </c>
@@ -20752,7 +20756,7 @@
       </c>
       <c r="M455" s="12"/>
     </row>
-    <row r="456" spans="2:13" s="11" customFormat="1" ht="23.25">
+    <row r="456" spans="2:13" s="11" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B456" s="11" t="s">
         <v>180</v>
       </c>
@@ -20788,7 +20792,7 @@
       </c>
       <c r="M456" s="12"/>
     </row>
-    <row r="457" spans="2:13" s="11" customFormat="1" ht="23.25">
+    <row r="457" spans="2:13" s="11" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B457" s="11" t="s">
         <v>456</v>
       </c>
@@ -20824,7 +20828,7 @@
       </c>
       <c r="M457" s="12"/>
     </row>
-    <row r="458" spans="2:13" s="11" customFormat="1" ht="23.25">
+    <row r="458" spans="2:13" s="11" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B458" s="11" t="s">
         <v>1113</v>
       </c>
@@ -20857,7 +20861,7 @@
       </c>
       <c r="M458" s="12"/>
     </row>
-    <row r="459" spans="2:13" s="11" customFormat="1" ht="23.25">
+    <row r="459" spans="2:13" s="11" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B459" s="11" t="s">
         <v>11</v>
       </c>
@@ -20890,7 +20894,7 @@
       </c>
       <c r="M459" s="12"/>
     </row>
-    <row r="460" spans="2:13" s="13" customFormat="1" ht="23.25">
+    <row r="460" spans="2:13" s="13" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B460" s="13" t="s">
         <v>120</v>
       </c>
@@ -20925,7 +20929,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="461" spans="2:13" s="11" customFormat="1" ht="23.25">
+    <row r="461" spans="2:13" s="11" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B461" s="11" t="s">
         <v>383</v>
       </c>
@@ -20958,7 +20962,7 @@
       </c>
       <c r="M461" s="12"/>
     </row>
-    <row r="462" spans="2:13" s="11" customFormat="1" ht="23.25">
+    <row r="462" spans="2:13" s="11" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B462" s="11" t="s">
         <v>144</v>
       </c>
@@ -20991,7 +20995,7 @@
       </c>
       <c r="M462" s="12"/>
     </row>
-    <row r="463" spans="2:13" s="11" customFormat="1" ht="23.25">
+    <row r="463" spans="2:13" s="11" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B463" s="11" t="s">
         <v>45</v>
       </c>
@@ -21024,7 +21028,7 @@
       </c>
       <c r="M463" s="12"/>
     </row>
-    <row r="464" spans="2:13" s="11" customFormat="1" ht="23.25">
+    <row r="464" spans="2:13" s="11" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B464" s="11" t="s">
         <v>173</v>
       </c>
@@ -21057,7 +21061,7 @@
       </c>
       <c r="M464" s="12"/>
     </row>
-    <row r="465" spans="2:13" s="11" customFormat="1" ht="23.25">
+    <row r="465" spans="2:13" s="11" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B465" s="11" t="s">
         <v>240</v>
       </c>
@@ -21090,7 +21094,7 @@
       </c>
       <c r="M465" s="12"/>
     </row>
-    <row r="466" spans="2:13" s="11" customFormat="1" ht="23.25">
+    <row r="466" spans="2:13" s="11" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B466" s="11" t="s">
         <v>144</v>
       </c>
@@ -21123,7 +21127,7 @@
       </c>
       <c r="M466" s="12"/>
     </row>
-    <row r="467" spans="2:13" s="11" customFormat="1" ht="23.25">
+    <row r="467" spans="2:13" s="11" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B467" s="11" t="s">
         <v>53</v>
       </c>
@@ -21156,7 +21160,7 @@
       </c>
       <c r="M467" s="12"/>
     </row>
-    <row r="468" spans="2:13" s="11" customFormat="1" ht="23.25">
+    <row r="468" spans="2:13" s="11" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B468" s="11" t="s">
         <v>11</v>
       </c>
@@ -21189,7 +21193,7 @@
       </c>
       <c r="M468" s="12"/>
     </row>
-    <row r="469" spans="2:13" s="11" customFormat="1" ht="23.25">
+    <row r="469" spans="2:13" s="11" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B469" s="11" t="s">
         <v>115</v>
       </c>
@@ -21222,7 +21226,7 @@
       </c>
       <c r="M469" s="12"/>
     </row>
-    <row r="470" spans="2:13" s="11" customFormat="1" ht="23.25">
+    <row r="470" spans="2:13" s="11" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B470" s="11" t="s">
         <v>240</v>
       </c>
@@ -21255,7 +21259,7 @@
       </c>
       <c r="M470" s="12"/>
     </row>
-    <row r="471" spans="2:13" s="11" customFormat="1" ht="23.25">
+    <row r="471" spans="2:13" s="11" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B471" s="11" t="s">
         <v>136</v>
       </c>
@@ -21288,7 +21292,7 @@
       </c>
       <c r="M471" s="12"/>
     </row>
-    <row r="472" spans="2:13" s="11" customFormat="1" ht="23.25">
+    <row r="472" spans="2:13" s="11" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B472" s="11" t="s">
         <v>45</v>
       </c>
@@ -21321,7 +21325,7 @@
       </c>
       <c r="M472" s="12"/>
     </row>
-    <row r="473" spans="2:13" s="11" customFormat="1" ht="23.25">
+    <row r="473" spans="2:13" s="11" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B473" s="11" t="s">
         <v>15</v>
       </c>
@@ -21354,7 +21358,7 @@
       </c>
       <c r="M473" s="12"/>
     </row>
-    <row r="474" spans="2:13" s="11" customFormat="1" ht="23.25">
+    <row r="474" spans="2:13" s="11" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B474" s="11" t="s">
         <v>34</v>
       </c>
@@ -21387,7 +21391,7 @@
       </c>
       <c r="M474" s="12"/>
     </row>
-    <row r="475" spans="2:13" s="11" customFormat="1" ht="23.25">
+    <row r="475" spans="2:13" s="11" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B475" s="11" t="s">
         <v>881</v>
       </c>
@@ -21420,7 +21424,7 @@
       </c>
       <c r="M475" s="12"/>
     </row>
-    <row r="476" spans="2:13" s="11" customFormat="1" ht="23.25">
+    <row r="476" spans="2:13" s="11" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B476" s="11" t="s">
         <v>199</v>
       </c>
@@ -21453,7 +21457,7 @@
       </c>
       <c r="M476" s="12"/>
     </row>
-    <row r="477" spans="2:13" s="11" customFormat="1" ht="23.25">
+    <row r="477" spans="2:13" s="11" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B477" s="11" t="s">
         <v>611</v>
       </c>
@@ -21486,7 +21490,7 @@
       </c>
       <c r="M477" s="12"/>
     </row>
-    <row r="478" spans="2:13" s="11" customFormat="1" ht="23.25">
+    <row r="478" spans="2:13" s="11" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B478" s="11" t="s">
         <v>144</v>
       </c>
@@ -21519,7 +21523,7 @@
       </c>
       <c r="M478" s="12"/>
     </row>
-    <row r="479" spans="2:13" s="11" customFormat="1" ht="23.25">
+    <row r="479" spans="2:13" s="11" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B479" s="11" t="s">
         <v>53</v>
       </c>
@@ -21555,7 +21559,7 @@
       </c>
       <c r="M479" s="12"/>
     </row>
-    <row r="480" spans="2:13" s="13" customFormat="1" ht="23.25">
+    <row r="480" spans="2:13" s="13" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B480" s="13" t="s">
         <v>123</v>
       </c>
@@ -21588,7 +21592,7 @@
       </c>
       <c r="M480" s="14"/>
     </row>
-    <row r="481" spans="2:13" s="11" customFormat="1" ht="23.25">
+    <row r="481" spans="2:13" s="11" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B481" s="11" t="s">
         <v>34</v>
       </c>
@@ -21621,7 +21625,7 @@
       </c>
       <c r="M481" s="12"/>
     </row>
-    <row r="482" spans="2:13" s="11" customFormat="1" ht="23.25">
+    <row r="482" spans="2:13" s="11" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B482" s="11" t="s">
         <v>108</v>
       </c>
@@ -21657,7 +21661,7 @@
       </c>
       <c r="M482" s="12"/>
     </row>
-    <row r="483" spans="2:13" s="11" customFormat="1" ht="23.25">
+    <row r="483" spans="2:13" s="11" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B483" s="11" t="s">
         <v>1279</v>
       </c>
@@ -21690,7 +21694,7 @@
       </c>
       <c r="M483" s="12"/>
     </row>
-    <row r="484" spans="2:13" s="11" customFormat="1" ht="23.25">
+    <row r="484" spans="2:13" s="11" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B484" s="11" t="s">
         <v>272</v>
       </c>
@@ -21723,7 +21727,7 @@
       </c>
       <c r="M484" s="12"/>
     </row>
-    <row r="485" spans="2:13" s="11" customFormat="1" ht="23.25">
+    <row r="485" spans="2:13" s="11" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B485" s="11" t="s">
         <v>475</v>
       </c>
@@ -21756,7 +21760,7 @@
       </c>
       <c r="M485" s="12"/>
     </row>
-    <row r="486" spans="2:13" s="11" customFormat="1" ht="23.25">
+    <row r="486" spans="2:13" s="11" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B486" s="11" t="s">
         <v>115</v>
       </c>
@@ -21789,7 +21793,7 @@
       </c>
       <c r="M486" s="12"/>
     </row>
-    <row r="487" spans="2:13" s="11" customFormat="1" ht="23.25">
+    <row r="487" spans="2:13" s="11" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B487" s="11" t="s">
         <v>188</v>
       </c>
@@ -21825,7 +21829,7 @@
       </c>
       <c r="M487" s="12"/>
     </row>
-    <row r="488" spans="2:13" s="11" customFormat="1" ht="23.25">
+    <row r="488" spans="2:13" s="11" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B488" s="11" t="s">
         <v>96</v>
       </c>
@@ -21858,7 +21862,7 @@
       </c>
       <c r="M488" s="12"/>
     </row>
-    <row r="489" spans="2:13" s="11" customFormat="1" ht="23.25">
+    <row r="489" spans="2:13" s="11" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B489" s="11" t="s">
         <v>42</v>
       </c>
@@ -21891,7 +21895,7 @@
       </c>
       <c r="M489" s="12"/>
     </row>
-    <row r="490" spans="2:13" s="11" customFormat="1" ht="23.25">
+    <row r="490" spans="2:13" s="11" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B490" s="11" t="s">
         <v>293</v>
       </c>
@@ -21924,7 +21928,7 @@
       </c>
       <c r="M490" s="12"/>
     </row>
-    <row r="491" spans="2:13" s="11" customFormat="1" ht="23.25">
+    <row r="491" spans="2:13" s="11" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B491" s="11" t="s">
         <v>1131</v>
       </c>
@@ -21960,7 +21964,7 @@
       </c>
       <c r="M491" s="12"/>
     </row>
-    <row r="492" spans="2:13" s="11" customFormat="1" ht="23.25">
+    <row r="492" spans="2:13" s="11" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B492" s="11" t="s">
         <v>80</v>
       </c>
@@ -21993,7 +21997,7 @@
       </c>
       <c r="M492" s="12"/>
     </row>
-    <row r="493" spans="2:13" s="11" customFormat="1" ht="23.25">
+    <row r="493" spans="2:13" s="11" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B493" s="11" t="s">
         <v>11</v>
       </c>
@@ -22026,7 +22030,7 @@
       </c>
       <c r="M493" s="12"/>
     </row>
-    <row r="494" spans="2:13" s="11" customFormat="1" ht="23.25">
+    <row r="494" spans="2:13" s="11" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B494" s="11" t="s">
         <v>105</v>
       </c>
@@ -22059,7 +22063,7 @@
       </c>
       <c r="M494" s="12"/>
     </row>
-    <row r="495" spans="2:13" s="11" customFormat="1" ht="23.25">
+    <row r="495" spans="2:13" s="11" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B495" s="11" t="s">
         <v>83</v>
       </c>
@@ -22095,7 +22099,7 @@
       </c>
       <c r="M495" s="12"/>
     </row>
-    <row r="496" spans="2:13" s="11" customFormat="1" ht="23.25">
+    <row r="496" spans="2:13" s="11" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B496" s="11" t="s">
         <v>383</v>
       </c>
@@ -22128,7 +22132,7 @@
       </c>
       <c r="M496" s="12"/>
     </row>
-    <row r="497" spans="2:13" s="11" customFormat="1" ht="23.25">
+    <row r="497" spans="2:13" s="11" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B497" s="11" t="s">
         <v>240</v>
       </c>
@@ -22164,7 +22168,7 @@
       </c>
       <c r="M497" s="12"/>
     </row>
-    <row r="498" spans="2:13" s="11" customFormat="1" ht="23.25">
+    <row r="498" spans="2:13" s="11" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B498" s="11" t="s">
         <v>493</v>
       </c>
@@ -22197,7 +22201,7 @@
       </c>
       <c r="M498" s="12"/>
     </row>
-    <row r="499" spans="2:13" s="11" customFormat="1" ht="23.25">
+    <row r="499" spans="2:13" s="11" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B499" s="11" t="s">
         <v>383</v>
       </c>
@@ -22230,7 +22234,7 @@
       </c>
       <c r="M499" s="12"/>
     </row>
-    <row r="500" spans="2:13" s="11" customFormat="1" ht="23.25">
+    <row r="500" spans="2:13" s="11" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B500" s="11" t="s">
         <v>53</v>
       </c>
@@ -22263,7 +22267,7 @@
       </c>
       <c r="M500" s="12"/>
     </row>
-    <row r="501" spans="2:13" s="11" customFormat="1" ht="23.25">
+    <row r="501" spans="2:13" s="11" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B501" s="11" t="s">
         <v>11</v>
       </c>
@@ -22296,7 +22300,7 @@
       </c>
       <c r="M501" s="12"/>
     </row>
-    <row r="502" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="502" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B502" s="3" t="s">
         <v>1279</v>
       </c>
@@ -22329,7 +22333,7 @@
       </c>
       <c r="M502" s="4"/>
     </row>
-    <row r="503" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="503" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B503" s="3" t="s">
         <v>166</v>
       </c>
@@ -22362,7 +22366,7 @@
       </c>
       <c r="M503" s="4"/>
     </row>
-    <row r="504" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="504" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B504" s="3" t="s">
         <v>42</v>
       </c>
@@ -22395,7 +22399,7 @@
       </c>
       <c r="M504" s="4"/>
     </row>
-    <row r="505" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="505" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B505" s="3" t="s">
         <v>66</v>
       </c>
@@ -22428,7 +22432,7 @@
       </c>
       <c r="M505" s="4"/>
     </row>
-    <row r="506" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="506" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B506" s="3" t="s">
         <v>493</v>
       </c>
@@ -22464,7 +22468,7 @@
       </c>
       <c r="M506" s="4"/>
     </row>
-    <row r="507" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="507" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B507" s="3" t="s">
         <v>108</v>
       </c>
@@ -22500,7 +22504,7 @@
       </c>
       <c r="M507" s="4"/>
     </row>
-    <row r="508" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="508" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B508" s="3" t="s">
         <v>15</v>
       </c>
@@ -22533,7 +22537,7 @@
       </c>
       <c r="M508" s="4"/>
     </row>
-    <row r="509" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="509" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B509" s="3" t="s">
         <v>105</v>
       </c>
@@ -22569,7 +22573,7 @@
       </c>
       <c r="M509" s="4"/>
     </row>
-    <row r="510" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="510" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B510" s="3" t="s">
         <v>53</v>
       </c>
@@ -22602,7 +22606,7 @@
       </c>
       <c r="M510" s="4"/>
     </row>
-    <row r="511" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="511" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B511" s="3" t="s">
         <v>45</v>
       </c>
@@ -22635,7 +22639,7 @@
       </c>
       <c r="M511" s="4"/>
     </row>
-    <row r="512" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="512" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B512" s="3" t="s">
         <v>91</v>
       </c>
@@ -22668,7 +22672,7 @@
       </c>
       <c r="M512" s="4"/>
     </row>
-    <row r="513" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="513" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B513" s="3" t="s">
         <v>223</v>
       </c>
@@ -22704,7 +22708,7 @@
       </c>
       <c r="M513" s="4"/>
     </row>
-    <row r="514" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="514" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B514" s="3" t="s">
         <v>876</v>
       </c>
@@ -22737,7 +22741,7 @@
       </c>
       <c r="M514" s="4"/>
     </row>
-    <row r="515" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="515" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B515" s="3" t="s">
         <v>105</v>
       </c>
@@ -22773,7 +22777,7 @@
       </c>
       <c r="M515" s="4"/>
     </row>
-    <row r="516" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="516" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B516" s="3" t="s">
         <v>158</v>
       </c>
@@ -22809,7 +22813,7 @@
       </c>
       <c r="M516" s="4"/>
     </row>
-    <row r="517" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="517" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B517" s="3" t="s">
         <v>456</v>
       </c>
@@ -22839,7 +22843,7 @@
       </c>
       <c r="M517" s="4"/>
     </row>
-    <row r="518" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="518" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B518" s="3" t="s">
         <v>358</v>
       </c>
@@ -22875,7 +22879,7 @@
       </c>
       <c r="M518" s="4"/>
     </row>
-    <row r="519" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="519" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B519" s="3" t="s">
         <v>42</v>
       </c>
@@ -22908,7 +22912,7 @@
       </c>
       <c r="M519" s="4"/>
     </row>
-    <row r="520" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="520" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B520" s="3" t="s">
         <v>77</v>
       </c>
@@ -22941,7 +22945,7 @@
       </c>
       <c r="M520" s="4"/>
     </row>
-    <row r="521" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="521" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B521" s="3" t="s">
         <v>123</v>
       </c>
@@ -22975,7 +22979,7 @@
       </c>
       <c r="M521" s="4"/>
     </row>
-    <row r="522" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="522" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B522" s="3" t="s">
         <v>1372</v>
       </c>
@@ -23008,7 +23012,7 @@
       </c>
       <c r="M522" s="4"/>
     </row>
-    <row r="523" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="523" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B523" s="3" t="s">
         <v>23</v>
       </c>
@@ -23041,7 +23045,7 @@
       </c>
       <c r="M523" s="4"/>
     </row>
-    <row r="524" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="524" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B524" s="3" t="s">
         <v>115</v>
       </c>
@@ -23074,7 +23078,7 @@
       </c>
       <c r="M524" s="4"/>
     </row>
-    <row r="525" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="525" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B525" s="3" t="s">
         <v>862</v>
       </c>
@@ -23107,7 +23111,7 @@
       </c>
       <c r="M525" s="4"/>
     </row>
-    <row r="526" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="526" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B526" s="3" t="s">
         <v>173</v>
       </c>
@@ -23137,7 +23141,7 @@
       </c>
       <c r="M526" s="4"/>
     </row>
-    <row r="527" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="527" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B527" s="3" t="s">
         <v>1386</v>
       </c>
@@ -23170,7 +23174,7 @@
       </c>
       <c r="M527" s="4"/>
     </row>
-    <row r="528" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="528" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B528" s="3" t="s">
         <v>18</v>
       </c>
@@ -23203,7 +23207,7 @@
       </c>
       <c r="M528" s="4"/>
     </row>
-    <row r="529" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="529" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B529" s="3" t="s">
         <v>173</v>
       </c>
@@ -23233,7 +23237,7 @@
       </c>
       <c r="M529" s="4"/>
     </row>
-    <row r="530" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="530" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B530" s="3" t="s">
         <v>229</v>
       </c>
@@ -23266,7 +23270,7 @@
       </c>
       <c r="M530" s="4"/>
     </row>
-    <row r="531" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="531" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B531" s="3" t="s">
         <v>229</v>
       </c>
@@ -23299,7 +23303,7 @@
       </c>
       <c r="M531" s="4"/>
     </row>
-    <row r="532" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="532" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B532" s="3" t="s">
         <v>34</v>
       </c>
@@ -23335,7 +23339,7 @@
       </c>
       <c r="M532" s="4"/>
     </row>
-    <row r="533" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="533" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B533" s="3" t="s">
         <v>319</v>
       </c>
@@ -23368,7 +23372,7 @@
       </c>
       <c r="M533" s="4"/>
     </row>
-    <row r="534" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="534" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B534" s="3" t="s">
         <v>18</v>
       </c>
@@ -23404,7 +23408,7 @@
       </c>
       <c r="M534" s="4"/>
     </row>
-    <row r="535" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="535" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B535" s="3" t="s">
         <v>601</v>
       </c>
@@ -23437,7 +23441,7 @@
       </c>
       <c r="M535" s="4"/>
     </row>
-    <row r="536" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="536" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B536" s="3" t="s">
         <v>144</v>
       </c>
@@ -23470,7 +23474,7 @@
       </c>
       <c r="M536" s="4"/>
     </row>
-    <row r="537" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="537" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B537" s="3" t="s">
         <v>18</v>
       </c>
@@ -23506,7 +23510,7 @@
       </c>
       <c r="M537" s="4"/>
     </row>
-    <row r="538" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="538" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B538" s="3" t="s">
         <v>86</v>
       </c>
@@ -23542,7 +23546,7 @@
       </c>
       <c r="M538" s="4"/>
     </row>
-    <row r="539" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="539" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B539" s="3" t="s">
         <v>80</v>
       </c>
@@ -23575,7 +23579,7 @@
       </c>
       <c r="M539" s="4"/>
     </row>
-    <row r="540" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="540" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B540" s="3" t="s">
         <v>862</v>
       </c>
@@ -23608,7 +23612,7 @@
       </c>
       <c r="M540" s="4"/>
     </row>
-    <row r="541" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="541" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B541" s="3" t="s">
         <v>34</v>
       </c>
@@ -23641,7 +23645,7 @@
       </c>
       <c r="M541" s="4"/>
     </row>
-    <row r="542" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="542" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B542" s="3" t="s">
         <v>456</v>
       </c>
@@ -23674,7 +23678,7 @@
       </c>
       <c r="M542" s="4"/>
     </row>
-    <row r="543" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="543" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B543" s="3" t="s">
         <v>223</v>
       </c>
@@ -23707,7 +23711,7 @@
       </c>
       <c r="M543" s="4"/>
     </row>
-    <row r="544" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="544" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B544" s="3" t="s">
         <v>1131</v>
       </c>
@@ -23743,7 +23747,7 @@
       </c>
       <c r="M544" s="4"/>
     </row>
-    <row r="545" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="545" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B545" s="3" t="s">
         <v>86</v>
       </c>
@@ -23779,7 +23783,7 @@
       </c>
       <c r="M545" s="4"/>
     </row>
-    <row r="546" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="546" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B546" s="3" t="s">
         <v>23</v>
       </c>
@@ -23812,7 +23816,7 @@
       </c>
       <c r="M546" s="4"/>
     </row>
-    <row r="547" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="547" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B547" s="3" t="s">
         <v>440</v>
       </c>
@@ -23845,7 +23849,7 @@
       </c>
       <c r="M547" s="4"/>
     </row>
-    <row r="548" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="548" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B548" s="3" t="s">
         <v>493</v>
       </c>
@@ -23879,7 +23883,7 @@
       </c>
       <c r="M548" s="4"/>
     </row>
-    <row r="549" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="549" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B549" s="3" t="s">
         <v>11</v>
       </c>
@@ -23912,7 +23916,7 @@
       </c>
       <c r="M549" s="4"/>
     </row>
-    <row r="550" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="550" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B550" s="3" t="s">
         <v>196</v>
       </c>
@@ -23945,7 +23949,7 @@
       </c>
       <c r="M550" s="4"/>
     </row>
-    <row r="551" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="551" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B551" s="3" t="s">
         <v>240</v>
       </c>
@@ -23978,7 +23982,7 @@
       </c>
       <c r="M551" s="4"/>
     </row>
-    <row r="552" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="552" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B552" s="3" t="s">
         <v>344</v>
       </c>
@@ -24011,7 +24015,7 @@
       </c>
       <c r="M552" s="4"/>
     </row>
-    <row r="553" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="553" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B553" s="3" t="s">
         <v>177</v>
       </c>
@@ -24047,7 +24051,7 @@
       </c>
       <c r="M553" s="4"/>
     </row>
-    <row r="554" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="554" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B554" s="3" t="s">
         <v>862</v>
       </c>
@@ -24080,7 +24084,7 @@
       </c>
       <c r="M554" s="4"/>
     </row>
-    <row r="555" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="555" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B555" s="3" t="s">
         <v>123</v>
       </c>
@@ -24113,7 +24117,7 @@
       </c>
       <c r="M555" s="4"/>
     </row>
-    <row r="556" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="556" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B556" s="3" t="s">
         <v>158</v>
       </c>
@@ -24146,7 +24150,7 @@
       </c>
       <c r="M556" s="4"/>
     </row>
-    <row r="557" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="557" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B557" s="3" t="s">
         <v>456</v>
       </c>
@@ -24179,7 +24183,7 @@
       </c>
       <c r="M557" s="4"/>
     </row>
-    <row r="558" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="558" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B558" s="3" t="s">
         <v>66</v>
       </c>
@@ -24212,7 +24216,7 @@
       </c>
       <c r="M558" s="4"/>
     </row>
-    <row r="559" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="559" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B559" s="3" t="s">
         <v>115</v>
       </c>
@@ -24245,7 +24249,7 @@
       </c>
       <c r="M559" s="4"/>
     </row>
-    <row r="560" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="560" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B560" s="3" t="s">
         <v>115</v>
       </c>
@@ -24278,7 +24282,7 @@
       </c>
       <c r="M560" s="4"/>
     </row>
-    <row r="561" spans="2:13" s="5" customFormat="1" ht="23.25">
+    <row r="561" spans="2:13" s="5" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B561" s="5" t="s">
         <v>77</v>
       </c>
@@ -24311,7 +24315,7 @@
       </c>
       <c r="M561" s="6"/>
     </row>
-    <row r="562" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="562" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B562" s="3" t="s">
         <v>66</v>
       </c>
@@ -24344,7 +24348,7 @@
       </c>
       <c r="M562" s="4"/>
     </row>
-    <row r="563" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="563" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B563" s="3" t="s">
         <v>601</v>
       </c>
@@ -24377,7 +24381,7 @@
       </c>
       <c r="M563" s="4"/>
     </row>
-    <row r="564" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="564" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B564" s="3" t="s">
         <v>77</v>
       </c>
@@ -24410,7 +24414,7 @@
       </c>
       <c r="M564" s="4"/>
     </row>
-    <row r="565" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="565" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B565" s="3" t="s">
         <v>180</v>
       </c>
@@ -24443,7 +24447,7 @@
       </c>
       <c r="M565" s="4"/>
     </row>
-    <row r="566" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="566" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B566" s="3" t="s">
         <v>749</v>
       </c>
@@ -24476,7 +24480,7 @@
       </c>
       <c r="M566" s="4"/>
     </row>
-    <row r="567" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="567" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B567" s="3" t="s">
         <v>158</v>
       </c>
@@ -24512,7 +24516,7 @@
       </c>
       <c r="M567" s="4"/>
     </row>
-    <row r="568" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="568" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B568" s="3" t="s">
         <v>383</v>
       </c>
@@ -24548,7 +24552,7 @@
       </c>
       <c r="M568" s="4"/>
     </row>
-    <row r="569" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="569" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B569" s="3" t="s">
         <v>383</v>
       </c>
@@ -24581,7 +24585,7 @@
       </c>
       <c r="M569" s="4"/>
     </row>
-    <row r="570" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="570" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B570" s="3" t="s">
         <v>15</v>
       </c>
@@ -24614,7 +24618,7 @@
       </c>
       <c r="M570" s="4"/>
     </row>
-    <row r="571" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="571" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B571" s="3" t="s">
         <v>49</v>
       </c>
@@ -24647,7 +24651,7 @@
       </c>
       <c r="M571" s="4"/>
     </row>
-    <row r="572" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="572" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B572" s="3" t="s">
         <v>77</v>
       </c>
@@ -24680,7 +24684,7 @@
       </c>
       <c r="M572" s="4"/>
     </row>
-    <row r="573" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="573" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B573" s="3" t="s">
         <v>180</v>
       </c>
@@ -24713,7 +24717,7 @@
       </c>
       <c r="M573" s="4"/>
     </row>
-    <row r="574" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="574" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B574" s="3" t="s">
         <v>34</v>
       </c>
@@ -24746,7 +24750,7 @@
       </c>
       <c r="M574" s="4"/>
     </row>
-    <row r="575" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="575" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B575" s="3" t="s">
         <v>158</v>
       </c>
@@ -24779,7 +24783,7 @@
       </c>
       <c r="M575" s="4"/>
     </row>
-    <row r="576" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="576" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B576" s="3" t="s">
         <v>34</v>
       </c>
@@ -24812,7 +24816,7 @@
       </c>
       <c r="M576" s="4"/>
     </row>
-    <row r="577" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="577" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B577" s="3" t="s">
         <v>18</v>
       </c>
@@ -24845,7 +24849,7 @@
       </c>
       <c r="M577" s="4"/>
     </row>
-    <row r="578" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="578" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B578" s="3" t="s">
         <v>325</v>
       </c>
@@ -24878,7 +24882,7 @@
       </c>
       <c r="M578" s="4"/>
     </row>
-    <row r="579" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="579" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B579" s="3" t="s">
         <v>229</v>
       </c>
@@ -24911,7 +24915,7 @@
       </c>
       <c r="M579" s="4"/>
     </row>
-    <row r="580" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="580" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B580" s="3" t="s">
         <v>15</v>
       </c>
@@ -24944,7 +24948,7 @@
       </c>
       <c r="M580" s="4"/>
     </row>
-    <row r="581" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="581" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B581" s="3" t="s">
         <v>71</v>
       </c>
@@ -24977,7 +24981,7 @@
       </c>
       <c r="M581" s="4"/>
     </row>
-    <row r="582" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="582" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B582" s="3" t="s">
         <v>23</v>
       </c>
@@ -25010,7 +25014,7 @@
       </c>
       <c r="M582" s="4"/>
     </row>
-    <row r="583" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="583" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B583" s="3" t="s">
         <v>105</v>
       </c>
@@ -25043,7 +25047,7 @@
       </c>
       <c r="M583" s="4"/>
     </row>
-    <row r="584" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="584" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B584" s="3" t="s">
         <v>96</v>
       </c>
@@ -25076,7 +25080,7 @@
       </c>
       <c r="M584" s="4"/>
     </row>
-    <row r="585" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="585" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B585" s="3" t="s">
         <v>11</v>
       </c>
@@ -25109,7 +25113,7 @@
       </c>
       <c r="M585" s="4"/>
     </row>
-    <row r="586" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="586" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B586" s="3" t="s">
         <v>11</v>
       </c>
@@ -25145,7 +25149,7 @@
       </c>
       <c r="M586" s="4"/>
     </row>
-    <row r="587" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="587" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B587" s="3" t="s">
         <v>1279</v>
       </c>
@@ -25178,7 +25182,7 @@
       </c>
       <c r="M587" s="4"/>
     </row>
-    <row r="588" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="588" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B588" s="3" t="s">
         <v>344</v>
       </c>
@@ -25211,7 +25215,7 @@
       </c>
       <c r="M588" s="4"/>
     </row>
-    <row r="589" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="589" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B589" s="3" t="s">
         <v>180</v>
       </c>
@@ -25244,7 +25248,7 @@
       </c>
       <c r="M589" s="4"/>
     </row>
-    <row r="590" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="590" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B590" s="3" t="s">
         <v>11</v>
       </c>
@@ -25277,7 +25281,7 @@
       </c>
       <c r="M590" s="4"/>
     </row>
-    <row r="591" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="591" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B591" s="3" t="s">
         <v>77</v>
       </c>
@@ -25310,7 +25314,7 @@
       </c>
       <c r="M591" s="4"/>
     </row>
-    <row r="592" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="592" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B592" s="3" t="s">
         <v>749</v>
       </c>
@@ -25343,7 +25347,7 @@
       </c>
       <c r="M592" s="4"/>
     </row>
-    <row r="593" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="593" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B593" s="3" t="s">
         <v>18</v>
       </c>
@@ -25376,7 +25380,7 @@
       </c>
       <c r="M593" s="4"/>
     </row>
-    <row r="594" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="594" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B594" s="3" t="s">
         <v>42</v>
       </c>
@@ -25412,7 +25416,7 @@
       </c>
       <c r="M594" s="4"/>
     </row>
-    <row r="595" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="595" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B595" s="3" t="s">
         <v>383</v>
       </c>
@@ -25445,7 +25449,7 @@
       </c>
       <c r="M595" s="4"/>
     </row>
-    <row r="596" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="596" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B596" s="3" t="s">
         <v>108</v>
       </c>
@@ -25481,7 +25485,7 @@
       </c>
       <c r="M596" s="4"/>
     </row>
-    <row r="597" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="597" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B597" s="3" t="s">
         <v>862</v>
       </c>
@@ -25514,7 +25518,7 @@
       </c>
       <c r="M597" s="4"/>
     </row>
-    <row r="598" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="598" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B598" s="3" t="s">
         <v>862</v>
       </c>
@@ -25547,7 +25551,7 @@
       </c>
       <c r="M598" s="4"/>
     </row>
-    <row r="599" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="599" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B599" s="3" t="s">
         <v>173</v>
       </c>
@@ -25580,7 +25584,7 @@
       </c>
       <c r="M599" s="4"/>
     </row>
-    <row r="600" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="600" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B600" s="3" t="s">
         <v>514</v>
       </c>
@@ -25613,7 +25617,7 @@
       </c>
       <c r="M600" s="4"/>
     </row>
-    <row r="601" spans="2:13" s="3" customFormat="1" ht="23.25">
+    <row r="601" spans="2:13" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B601" s="3" t="s">
         <v>77</v>
       </c>
@@ -25646,7 +25650,7 @@
       </c>
       <c r="M601" s="4"/>
     </row>
-    <row r="602" spans="2:13" s="15" customFormat="1" ht="14.25" customHeight="1" thickBot="1">
+    <row r="602" spans="2:13" s="15" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B602" s="16">
         <v>302537</v>
       </c>
@@ -25669,7 +25673,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="603" spans="2:13" s="15" customFormat="1" ht="14.25" customHeight="1" thickBot="1">
+    <row r="603" spans="2:13" s="15" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B603" s="16">
         <v>284108</v>
       </c>
